--- a/trunk/doc/3w联盟微信开发计划表.xlsx
+++ b/trunk/doc/3w联盟微信开发计划表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="151">
   <si>
     <t>负责人</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -28,47 +28,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>平面ui设计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>前端html静态页</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>制做微信效果图</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>10天</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>郑昀 13号后才能安排时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>郑昀</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>韦杰生</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>田恭铭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>交互原型</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>交互所有流程，原型设计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>？</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -586,6 +562,82 @@
   </si>
   <si>
     <t>平面没有效果图，暂时根据交互，做些基本的，提供给开发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卢迪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>田恭铭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>田恭铭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>朱子秋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>朱子秋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一级页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二级页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信平面ui设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剩下的功能模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据开发进度确定优先级，配合开发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1天</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -706,7 +758,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -758,6 +810,12 @@
     <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -767,6 +825,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -779,8 +840,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1076,10 +1143,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J82"/>
+  <dimension ref="A1:J84"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I72" sqref="I72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21.95" customHeight="1"/>
@@ -1098,27 +1165,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A1" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="B1" s="21"/>
+      <c r="A1" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="24"/>
       <c r="C1" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>1</v>
@@ -1128,417 +1195,455 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="36" customHeight="1">
-      <c r="A2" s="22" t="s">
-        <v>106</v>
-      </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
+      <c r="A2" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
     </row>
     <row r="3" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A3" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
+      <c r="A3" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="5">
+        <v>42508</v>
+      </c>
+      <c r="F3" s="5">
+        <v>42513</v>
+      </c>
       <c r="G3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>7</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="H3" s="3"/>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
     </row>
-    <row r="4" spans="1:10" ht="54" customHeight="1">
-      <c r="A4" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="20"/>
-      <c r="C4" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="5"/>
+    <row r="4" spans="1:10" ht="21.95" customHeight="1">
+      <c r="A4" s="19"/>
+      <c r="B4" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="5">
+        <v>42514</v>
+      </c>
       <c r="F4" s="5">
-        <v>42503</v>
+        <v>42521</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>114</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="H4" s="3"/>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
     </row>
-    <row r="5" spans="1:10" ht="42" customHeight="1">
-      <c r="A5" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="24"/>
+    <row r="5" spans="1:10" ht="21.95" customHeight="1">
+      <c r="A5" s="19"/>
+      <c r="B5" s="18" t="s">
+        <v>144</v>
+      </c>
       <c r="C5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>6</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="D5" s="17"/>
       <c r="E5" s="5">
-        <v>42493</v>
-      </c>
-      <c r="F5" s="5">
-        <v>42503</v>
-      </c>
+        <v>42522</v>
+      </c>
+      <c r="F5" s="5"/>
       <c r="G5" s="3" t="s">
-        <v>10</v>
+        <v>135</v>
       </c>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
     </row>
-    <row r="6" spans="1:10" ht="41.25" customHeight="1">
-      <c r="A6" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="24"/>
+    <row r="6" spans="1:10" ht="54" customHeight="1">
+      <c r="A6" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="23"/>
       <c r="C6" s="4" t="s">
-        <v>16</v>
+        <v>131</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="5">
-        <v>42504</v>
-      </c>
-      <c r="F6" s="5">
-        <v>42504</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
       <c r="G6" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H6" s="3"/>
+        <v>5</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>108</v>
+      </c>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
     </row>
-    <row r="7" spans="1:10" s="13" customFormat="1" ht="43.5" customHeight="1">
-      <c r="A7" s="18" t="s">
-        <v>107</v>
-      </c>
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
-    </row>
-    <row r="8" spans="1:10" s="13" customFormat="1" ht="21.95" customHeight="1">
-      <c r="A8" s="17" t="s">
+    <row r="7" spans="1:10" ht="42" customHeight="1">
+      <c r="A7" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="22"/>
+      <c r="C7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5">
+        <v>42507</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+    </row>
+    <row r="8" spans="1:10" ht="41.25" customHeight="1">
+      <c r="A8" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="22"/>
+      <c r="C8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="5">
+        <v>42504</v>
+      </c>
+      <c r="F8" s="5">
+        <v>42504</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+    </row>
+    <row r="9" spans="1:10" s="13" customFormat="1" ht="43.5" customHeight="1">
+      <c r="A9" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="B9" s="23"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="23"/>
+    </row>
+    <row r="10" spans="1:10" s="13" customFormat="1" ht="21.95" customHeight="1">
+      <c r="A10" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="C10" s="14"/>
+      <c r="D10" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="E10" s="5">
+        <v>42493</v>
+      </c>
+      <c r="F10" s="16">
+        <v>42495</v>
+      </c>
+      <c r="G10" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="H10" s="14"/>
+      <c r="I10" s="29" t="s">
+        <v>148</v>
+      </c>
+      <c r="J10" s="14"/>
+    </row>
+    <row r="11" spans="1:10" ht="21.95" customHeight="1">
+      <c r="A11" s="19"/>
+      <c r="B11" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="E11" s="16">
+        <v>42496</v>
+      </c>
+      <c r="F11" s="16">
+        <v>42496</v>
+      </c>
+      <c r="G11" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="H11" s="3"/>
+      <c r="I11" s="29" t="s">
+        <v>148</v>
+      </c>
+      <c r="J11" s="3"/>
+    </row>
+    <row r="12" spans="1:10" ht="21.95" customHeight="1">
+      <c r="A12" s="19"/>
+      <c r="B12" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="E12" s="16">
+        <v>42496</v>
+      </c>
+      <c r="F12" s="16">
+        <v>42496</v>
+      </c>
+      <c r="G12" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="H12" s="3"/>
+      <c r="I12" s="29" t="s">
+        <v>148</v>
+      </c>
+      <c r="J12" s="3"/>
+    </row>
+    <row r="13" spans="1:10" ht="21.95" customHeight="1">
+      <c r="A13" s="19"/>
+      <c r="B13" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E13" s="5">
+        <v>42497</v>
+      </c>
+      <c r="F13" s="5">
+        <v>42500</v>
+      </c>
+      <c r="G13" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="H13" s="3"/>
+      <c r="I13" s="29" t="s">
+        <v>148</v>
+      </c>
+      <c r="J13" s="3"/>
+    </row>
+    <row r="14" spans="1:10" ht="105.75" customHeight="1">
+      <c r="A14" s="19"/>
+      <c r="B14" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="C8" s="14"/>
-      <c r="D8" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="E8" s="5">
-        <v>42493</v>
-      </c>
-      <c r="F8" s="16">
-        <v>42495</v>
-      </c>
-      <c r="G8" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-    </row>
-    <row r="9" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A9" s="17"/>
-      <c r="B9" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="E9" s="16">
-        <v>42496</v>
-      </c>
-      <c r="F9" s="16">
-        <v>42496</v>
-      </c>
-      <c r="G9" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-    </row>
-    <row r="10" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A10" s="17"/>
-      <c r="B10" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="E10" s="16">
-        <v>42496</v>
-      </c>
-      <c r="F10" s="16">
-        <v>42496</v>
-      </c>
-      <c r="G10" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-    </row>
-    <row r="11" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A11" s="17"/>
-      <c r="B11" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="E11" s="5">
-        <v>42497</v>
-      </c>
-      <c r="F11" s="5">
-        <v>42500</v>
-      </c>
-      <c r="G11" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-    </row>
-    <row r="12" spans="1:10" ht="105.75" customHeight="1">
-      <c r="A12" s="17"/>
-      <c r="B12" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-    </row>
-    <row r="13" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A13" s="17"/>
-      <c r="B13" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-    </row>
-    <row r="14" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A14" s="17"/>
-      <c r="B14" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" s="9"/>
+      <c r="C14" s="8" t="s">
+        <v>110</v>
+      </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
-      <c r="G14" s="15" t="s">
-        <v>105</v>
-      </c>
+      <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
     </row>
     <row r="15" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A15" s="17"/>
+      <c r="A15" s="19"/>
       <c r="B15" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="C15" s="9"/>
+        <v>20</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>125</v>
+      </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
-      <c r="G15" s="15"/>
+      <c r="G15" s="3"/>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
     </row>
     <row r="16" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A16" s="17"/>
+      <c r="A16" s="19"/>
       <c r="B16" s="7" t="s">
-        <v>118</v>
+        <v>21</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
-      <c r="G16" s="15"/>
+      <c r="G16" s="15" t="s">
+        <v>99</v>
+      </c>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
     </row>
     <row r="17" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A17" s="17"/>
+      <c r="A17" s="19"/>
       <c r="B17" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="C17" s="7"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
+        <v>111</v>
+      </c>
+      <c r="C17" s="9"/>
+      <c r="D17" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="E17" s="5">
+        <v>42506</v>
+      </c>
+      <c r="F17" s="5">
+        <v>42510</v>
+      </c>
+      <c r="G17" s="15" t="s">
+        <v>133</v>
+      </c>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
     </row>
     <row r="18" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A18" s="17" t="s">
-        <v>28</v>
-      </c>
+      <c r="A18" s="19"/>
       <c r="B18" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C18" s="3"/>
+        <v>112</v>
+      </c>
+      <c r="C18" s="9"/>
       <c r="D18" s="3" t="s">
-        <v>100</v>
+        <v>147</v>
       </c>
       <c r="E18" s="5">
-        <v>42504</v>
+        <v>42513</v>
       </c>
       <c r="F18" s="5">
-        <v>42504</v>
+        <v>42516</v>
       </c>
       <c r="G18" s="15" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
     </row>
     <row r="19" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A19" s="17"/>
+      <c r="A19" s="19"/>
       <c r="B19" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="C19" s="3"/>
+        <v>113</v>
+      </c>
+      <c r="C19" s="7"/>
       <c r="D19" s="3" t="s">
-        <v>100</v>
+        <v>132</v>
       </c>
       <c r="E19" s="5">
-        <v>42506</v>
+        <v>42511</v>
       </c>
       <c r="F19" s="5">
-        <v>42506</v>
-      </c>
-      <c r="G19" s="15" t="s">
-        <v>96</v>
+        <v>42516</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>133</v>
       </c>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
     </row>
     <row r="20" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A20" s="17"/>
+      <c r="A20" s="19" t="s">
+        <v>22</v>
+      </c>
       <c r="B20" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="C20" s="10"/>
+        <v>23</v>
+      </c>
+      <c r="C20" s="3"/>
       <c r="D20" s="3" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="E20" s="5">
-        <v>42507</v>
+        <v>42504</v>
       </c>
       <c r="F20" s="5">
-        <v>42507</v>
+        <v>42504</v>
       </c>
       <c r="G20" s="15" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
     </row>
     <row r="21" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A21" s="17" t="s">
-        <v>31</v>
-      </c>
+      <c r="A21" s="19"/>
       <c r="B21" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C21" s="10"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
+        <v>114</v>
+      </c>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E21" s="5">
+        <v>42506</v>
+      </c>
+      <c r="F21" s="5">
+        <v>42506</v>
+      </c>
+      <c r="G21" s="15" t="s">
+        <v>90</v>
+      </c>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
     </row>
     <row r="22" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A22" s="17"/>
+      <c r="A22" s="19"/>
       <c r="B22" s="7" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="C22" s="10"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
+      <c r="D22" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E22" s="5">
+        <v>42507</v>
+      </c>
+      <c r="F22" s="5">
+        <v>42507</v>
+      </c>
+      <c r="G22" s="15" t="s">
+        <v>137</v>
+      </c>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
     </row>
     <row r="23" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A23" s="11" t="s">
-        <v>33</v>
+      <c r="A23" s="19" t="s">
+        <v>25</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="C23" s="10"/>
       <c r="D23" s="3"/>
@@ -1550,47 +1655,53 @@
       <c r="J23" s="3"/>
     </row>
     <row r="24" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A24" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="B24" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="C24" s="7"/>
-      <c r="D24" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
+      <c r="A24" s="19"/>
+      <c r="B24" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="C24" s="10"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
     </row>
     <row r="25" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A25" s="17"/>
+      <c r="A25" s="11" t="s">
+        <v>27</v>
+      </c>
       <c r="B25" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C25" s="7"/>
+        <v>39</v>
+      </c>
+      <c r="C25" s="10"/>
       <c r="D25" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="3"/>
+        <v>136</v>
+      </c>
+      <c r="E25" s="5">
+        <v>42517</v>
+      </c>
+      <c r="F25" s="5">
+        <v>42520</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
     </row>
     <row r="26" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A26" s="17"/>
-      <c r="B26" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="C26" s="3"/>
+      <c r="A26" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C26" s="7"/>
       <c r="D26" s="3" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
@@ -1600,39 +1711,43 @@
       <c r="J26" s="3"/>
     </row>
     <row r="27" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A27" s="17" t="s">
-        <v>49</v>
-      </c>
+      <c r="A27" s="19"/>
       <c r="B27" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
+        <v>28</v>
+      </c>
+      <c r="C27" s="7"/>
+      <c r="D27" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
     </row>
     <row r="28" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A28" s="17"/>
+      <c r="A28" s="19"/>
       <c r="B28" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
+      <c r="D28" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
     </row>
     <row r="29" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A29" s="17"/>
+      <c r="A29" s="19" t="s">
+        <v>43</v>
+      </c>
       <c r="B29" s="7" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
@@ -1644,11 +1759,9 @@
       <c r="J29" s="3"/>
     </row>
     <row r="30" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A30" s="17" t="s">
-        <v>52</v>
-      </c>
+      <c r="A30" s="19"/>
       <c r="B30" s="7" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
@@ -1660,40 +1773,60 @@
       <c r="J30" s="3"/>
     </row>
     <row r="31" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A31" s="17"/>
+      <c r="A31" s="19"/>
       <c r="B31" s="7" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
+      <c r="D31" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E31" s="5">
+        <v>42520</v>
+      </c>
+      <c r="F31" s="5">
+        <v>42522</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>138</v>
+      </c>
       <c r="H31" s="3"/>
       <c r="I31" s="3"/>
       <c r="J31" s="3"/>
     </row>
     <row r="32" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A32" s="17"/>
+      <c r="A32" s="19" t="s">
+        <v>46</v>
+      </c>
       <c r="B32" s="7" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
+      <c r="D32" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="E32" s="5">
+        <v>42517</v>
+      </c>
+      <c r="F32" s="5">
+        <v>42518</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>138</v>
+      </c>
       <c r="H32" s="3"/>
       <c r="I32" s="3"/>
       <c r="J32" s="3"/>
     </row>
     <row r="33" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A33" s="17"/>
+      <c r="A33" s="19"/>
       <c r="B33" s="7" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
+      <c r="D33" s="3" t="s">
+        <v>139</v>
+      </c>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
@@ -1702,34 +1835,30 @@
       <c r="J33" s="3"/>
     </row>
     <row r="34" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A34" s="17" t="s">
-        <v>55</v>
-      </c>
+      <c r="A34" s="19"/>
       <c r="B34" s="7" t="s">
-        <v>98</v>
+        <v>30</v>
       </c>
       <c r="C34" s="3"/>
       <c r="D34" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="E34" s="5">
-        <v>42501</v>
-      </c>
-      <c r="F34" s="5">
-        <v>42503</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
       <c r="G34" s="3"/>
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>
       <c r="J34" s="3"/>
     </row>
     <row r="35" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A35" s="17"/>
+      <c r="A35" s="19"/>
       <c r="B35" s="7" t="s">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
+      <c r="D35" s="3" t="s">
+        <v>140</v>
+      </c>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
@@ -1738,23 +1867,33 @@
       <c r="J35" s="3"/>
     </row>
     <row r="36" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A36" s="17"/>
+      <c r="A36" s="19" t="s">
+        <v>49</v>
+      </c>
       <c r="B36" s="7" t="s">
-        <v>38</v>
+        <v>92</v>
       </c>
       <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="3"/>
+      <c r="D36" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="E36" s="5">
+        <v>42508</v>
+      </c>
+      <c r="F36" s="5">
+        <v>42511</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>138</v>
+      </c>
       <c r="H36" s="3"/>
       <c r="I36" s="3"/>
       <c r="J36" s="3"/>
     </row>
     <row r="37" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A37" s="17"/>
+      <c r="A37" s="19"/>
       <c r="B37" s="7" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
@@ -1766,9 +1905,9 @@
       <c r="J37" s="3"/>
     </row>
     <row r="38" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A38" s="17"/>
+      <c r="A38" s="19"/>
       <c r="B38" s="7" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
@@ -1780,13 +1919,11 @@
       <c r="J38" s="3"/>
     </row>
     <row r="39" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A39" s="20" t="s">
-        <v>121</v>
-      </c>
-      <c r="B39" s="20"/>
-      <c r="C39" s="3" t="s">
-        <v>57</v>
-      </c>
+      <c r="A39" s="19"/>
+      <c r="B39" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C39" s="3"/>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
@@ -1796,30 +1933,28 @@
       <c r="J39" s="3"/>
     </row>
     <row r="40" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A40" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="B40" s="19"/>
-      <c r="C40" s="19"/>
-      <c r="D40" s="19"/>
-      <c r="E40" s="19"/>
-      <c r="F40" s="19"/>
-      <c r="G40" s="19"/>
-      <c r="H40" s="19"/>
-      <c r="I40" s="19"/>
-      <c r="J40" s="19"/>
+      <c r="A40" s="19"/>
+      <c r="B40" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
+      <c r="I40" s="3"/>
+      <c r="J40" s="3"/>
     </row>
     <row r="41" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A41" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="B41" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="C41" s="3"/>
-      <c r="D41" s="3" t="s">
-        <v>100</v>
-      </c>
+      <c r="A41" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="B41" s="23"/>
+      <c r="C41" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D41" s="3"/>
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
       <c r="G41" s="3"/>
@@ -1828,26 +1963,29 @@
       <c r="J41" s="3"/>
     </row>
     <row r="42" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A42" s="17"/>
-      <c r="B42" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="C42" s="3"/>
-      <c r="D42" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="H42" s="3"/>
-      <c r="I42" s="3"/>
-      <c r="J42" s="3"/>
+      <c r="A42" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="B42" s="21"/>
+      <c r="C42" s="21"/>
+      <c r="D42" s="21"/>
+      <c r="E42" s="21"/>
+      <c r="F42" s="21"/>
+      <c r="G42" s="21"/>
+      <c r="H42" s="21"/>
+      <c r="I42" s="21"/>
+      <c r="J42" s="21"/>
     </row>
     <row r="43" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A43" s="17"/>
+      <c r="A43" s="19" t="s">
+        <v>63</v>
+      </c>
       <c r="B43" s="7" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C43" s="3"/>
       <c r="D43" s="3" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
@@ -1857,31 +1995,26 @@
       <c r="J43" s="3"/>
     </row>
     <row r="44" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A44" s="17" t="s">
-        <v>72</v>
-      </c>
+      <c r="A44" s="19"/>
       <c r="B44" s="7" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C44" s="3"/>
       <c r="D44" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E44" s="3"/>
-      <c r="F44" s="3"/>
-      <c r="G44" s="3"/>
+        <v>94</v>
+      </c>
       <c r="H44" s="3"/>
       <c r="I44" s="3"/>
       <c r="J44" s="3"/>
     </row>
     <row r="45" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A45" s="17"/>
+      <c r="A45" s="19"/>
       <c r="B45" s="7" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="C45" s="3"/>
       <c r="D45" s="3" t="s">
-        <v>15</v>
+        <v>95</v>
       </c>
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
@@ -1891,13 +2024,15 @@
       <c r="J45" s="3"/>
     </row>
     <row r="46" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A46" s="17"/>
+      <c r="A46" s="19" t="s">
+        <v>66</v>
+      </c>
       <c r="B46" s="7" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="C46" s="3"/>
       <c r="D46" s="3" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
@@ -1907,15 +2042,13 @@
       <c r="J46" s="3"/>
     </row>
     <row r="47" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A47" s="17" t="s">
-        <v>74</v>
-      </c>
+      <c r="A47" s="19"/>
       <c r="B47" s="7" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C47" s="3"/>
       <c r="D47" s="3" t="s">
-        <v>100</v>
+        <v>9</v>
       </c>
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
@@ -1925,13 +2058,13 @@
       <c r="J47" s="3"/>
     </row>
     <row r="48" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A48" s="17"/>
+      <c r="A48" s="19"/>
       <c r="B48" s="7" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C48" s="3"/>
       <c r="D48" s="3" t="s">
-        <v>100</v>
+        <v>9</v>
       </c>
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
@@ -1941,15 +2074,15 @@
       <c r="J48" s="3"/>
     </row>
     <row r="49" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A49" s="17" t="s">
-        <v>75</v>
+      <c r="A49" s="19" t="s">
+        <v>68</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="C49" s="3"/>
       <c r="D49" s="3" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="E49" s="3"/>
       <c r="F49" s="3"/>
@@ -1959,13 +2092,13 @@
       <c r="J49" s="3"/>
     </row>
     <row r="50" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A50" s="17"/>
+      <c r="A50" s="19"/>
       <c r="B50" s="7" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="C50" s="3"/>
       <c r="D50" s="3" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="E50" s="3"/>
       <c r="F50" s="3"/>
@@ -1975,13 +2108,15 @@
       <c r="J50" s="3"/>
     </row>
     <row r="51" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A51" s="17"/>
+      <c r="A51" s="19" t="s">
+        <v>69</v>
+      </c>
       <c r="B51" s="7" t="s">
-        <v>104</v>
+        <v>70</v>
       </c>
       <c r="C51" s="3"/>
       <c r="D51" s="3" t="s">
-        <v>15</v>
+        <v>96</v>
       </c>
       <c r="E51" s="3"/>
       <c r="F51" s="3"/>
@@ -1991,14 +2126,14 @@
       <c r="J51" s="3"/>
     </row>
     <row r="52" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A52" s="17" t="s">
-        <v>77</v>
-      </c>
+      <c r="A52" s="19"/>
       <c r="B52" s="7" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="C52" s="3"/>
-      <c r="D52" s="3"/>
+      <c r="D52" s="3" t="s">
+        <v>97</v>
+      </c>
       <c r="E52" s="3"/>
       <c r="F52" s="3"/>
       <c r="G52" s="3"/>
@@ -2007,13 +2142,13 @@
       <c r="J52" s="3"/>
     </row>
     <row r="53" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A53" s="17"/>
+      <c r="A53" s="19"/>
       <c r="B53" s="7" t="s">
-        <v>65</v>
+        <v>98</v>
       </c>
       <c r="C53" s="3"/>
       <c r="D53" s="3" t="s">
-        <v>100</v>
+        <v>9</v>
       </c>
       <c r="E53" s="3"/>
       <c r="F53" s="3"/>
@@ -2023,11 +2158,11 @@
       <c r="J53" s="3"/>
     </row>
     <row r="54" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A54" s="17" t="s">
-        <v>122</v>
+      <c r="A54" s="19" t="s">
+        <v>71</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>123</v>
+        <v>72</v>
       </c>
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
@@ -2039,12 +2174,14 @@
       <c r="J54" s="3"/>
     </row>
     <row r="55" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A55" s="17"/>
+      <c r="A55" s="19"/>
       <c r="B55" s="7" t="s">
-        <v>124</v>
+        <v>59</v>
       </c>
       <c r="C55" s="3"/>
-      <c r="D55" s="3"/>
+      <c r="D55" s="3" t="s">
+        <v>94</v>
+      </c>
       <c r="E55" s="3"/>
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
@@ -2053,350 +2190,368 @@
       <c r="J55" s="3"/>
     </row>
     <row r="56" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A56" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="B56" s="19"/>
-      <c r="C56" s="19"/>
-      <c r="D56" s="19"/>
-      <c r="E56" s="19"/>
-      <c r="F56" s="19"/>
-      <c r="G56" s="19"/>
-      <c r="H56" s="19"/>
-      <c r="I56" s="19"/>
-      <c r="J56" s="19"/>
+      <c r="A56" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="C56" s="3"/>
+      <c r="D56" s="3"/>
+      <c r="E56" s="3"/>
+      <c r="F56" s="3"/>
+      <c r="G56" s="3"/>
+      <c r="H56" s="3"/>
+      <c r="I56" s="3"/>
+      <c r="J56" s="3"/>
     </row>
     <row r="57" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A57" s="17" t="s">
-        <v>69</v>
-      </c>
+      <c r="A57" s="19"/>
       <c r="B57" s="7" t="s">
-        <v>99</v>
+        <v>118</v>
       </c>
       <c r="C57" s="3"/>
-      <c r="D57" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="E57" s="5"/>
-      <c r="F57" s="5"/>
-      <c r="G57" s="3" t="s">
-        <v>18</v>
-      </c>
+      <c r="D57" s="3"/>
+      <c r="E57" s="3"/>
+      <c r="F57" s="3"/>
+      <c r="G57" s="3"/>
       <c r="H57" s="3"/>
       <c r="I57" s="3"/>
       <c r="J57" s="3"/>
     </row>
     <row r="58" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A58" s="17"/>
-      <c r="B58" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="C58" s="3"/>
-      <c r="D58" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="E58" s="5"/>
-      <c r="F58" s="5"/>
-      <c r="G58" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H58" s="3"/>
-      <c r="I58" s="3"/>
-      <c r="J58" s="3"/>
+      <c r="A58" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="B58" s="21"/>
+      <c r="C58" s="21"/>
+      <c r="D58" s="21"/>
+      <c r="E58" s="21"/>
+      <c r="F58" s="21"/>
+      <c r="G58" s="21"/>
+      <c r="H58" s="21"/>
+      <c r="I58" s="21"/>
+      <c r="J58" s="21"/>
     </row>
     <row r="59" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A59" s="17"/>
+      <c r="A59" s="19" t="s">
+        <v>63</v>
+      </c>
       <c r="B59" s="7" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="C59" s="3"/>
       <c r="D59" s="3" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="E59" s="5"/>
       <c r="F59" s="5"/>
       <c r="G59" s="3" t="s">
-        <v>18</v>
+        <v>102</v>
       </c>
       <c r="H59" s="3"/>
       <c r="I59" s="3"/>
       <c r="J59" s="3"/>
     </row>
     <row r="60" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A60" s="17"/>
+      <c r="A60" s="19"/>
       <c r="B60" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="E60" s="5"/>
-      <c r="F60" s="5"/>
-      <c r="G60" s="3" t="s">
-        <v>17</v>
+        <v>94</v>
+      </c>
+      <c r="E60" s="28">
+        <v>42495</v>
+      </c>
+      <c r="F60" s="28">
+        <v>42495</v>
+      </c>
+      <c r="G60" s="27" t="s">
+        <v>11</v>
       </c>
       <c r="H60" s="3"/>
-      <c r="I60" s="3"/>
+      <c r="I60" s="29" t="s">
+        <v>148</v>
+      </c>
       <c r="J60" s="3"/>
     </row>
     <row r="61" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A61" s="17"/>
+      <c r="A61" s="19"/>
       <c r="B61" s="7" t="s">
-        <v>125</v>
+        <v>74</v>
       </c>
       <c r="C61" s="3"/>
-      <c r="D61" s="3"/>
+      <c r="D61" s="3" t="s">
+        <v>95</v>
+      </c>
       <c r="E61" s="5"/>
       <c r="F61" s="5"/>
-      <c r="G61" s="3"/>
+      <c r="G61" s="3" t="s">
+        <v>102</v>
+      </c>
       <c r="H61" s="3"/>
       <c r="I61" s="3"/>
       <c r="J61" s="3"/>
     </row>
     <row r="62" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A62" s="17" t="s">
-        <v>81</v>
-      </c>
+      <c r="A62" s="19"/>
       <c r="B62" s="7" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="C62" s="3"/>
       <c r="D62" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="E62" s="5">
-        <v>42497</v>
-      </c>
-      <c r="F62" s="5">
-        <v>42497</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="E62" s="5"/>
+      <c r="F62" s="5"/>
       <c r="G62" s="3" t="s">
-        <v>18</v>
+        <v>102</v>
       </c>
       <c r="H62" s="3"/>
       <c r="I62" s="3"/>
       <c r="J62" s="3"/>
     </row>
     <row r="63" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A63" s="17"/>
+      <c r="A63" s="19"/>
       <c r="B63" s="7" t="s">
-        <v>82</v>
+        <v>119</v>
       </c>
       <c r="C63" s="3"/>
       <c r="D63" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="E63" s="5">
-        <v>42496</v>
-      </c>
-      <c r="F63" s="5">
-        <v>42496</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="E63" s="5"/>
+      <c r="F63" s="5"/>
       <c r="G63" s="3" t="s">
-        <v>18</v>
+        <v>102</v>
       </c>
       <c r="H63" s="3"/>
       <c r="I63" s="3"/>
       <c r="J63" s="3"/>
     </row>
     <row r="64" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A64" s="17" t="s">
-        <v>45</v>
+      <c r="A64" s="19" t="s">
+        <v>75</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>112</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="C64" s="3"/>
       <c r="D64" s="3" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="E64" s="5">
+        <v>42497</v>
+      </c>
+      <c r="F64" s="5">
+        <v>42497</v>
+      </c>
+      <c r="G64" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H64" s="3"/>
+      <c r="I64" s="29" t="s">
+        <v>148</v>
+      </c>
+      <c r="J64" s="3"/>
+    </row>
+    <row r="65" spans="1:10" ht="21.95" customHeight="1">
+      <c r="A65" s="19"/>
+      <c r="B65" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C65" s="3"/>
+      <c r="D65" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E65" s="5">
+        <v>42496</v>
+      </c>
+      <c r="F65" s="5">
+        <v>42496</v>
+      </c>
+      <c r="G65" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H65" s="3"/>
+      <c r="I65" s="29" t="s">
+        <v>148</v>
+      </c>
+      <c r="J65" s="3"/>
+    </row>
+    <row r="66" spans="1:10" ht="21.95" customHeight="1">
+      <c r="A66" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="B66" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E66" s="5">
         <v>42504</v>
       </c>
-      <c r="F64" s="5">
+      <c r="F66" s="5">
         <v>42504</v>
       </c>
-      <c r="G64" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="H64" s="3"/>
-      <c r="I64" s="3"/>
-      <c r="J64" s="3"/>
-    </row>
-    <row r="65" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A65" s="17"/>
-      <c r="B65" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="C65" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="D65" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="E65" s="5">
-        <v>42503</v>
-      </c>
-      <c r="F65" s="5">
-        <v>42503</v>
-      </c>
-      <c r="G65" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="H65" s="3"/>
-      <c r="I65" s="3"/>
-      <c r="J65" s="3"/>
-    </row>
-    <row r="66" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A66" s="17"/>
-      <c r="B66" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="C66" s="3"/>
-      <c r="D66" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="E66" s="3"/>
-      <c r="F66" s="3"/>
-      <c r="G66" s="3"/>
+      <c r="G66" s="3" t="s">
+        <v>102</v>
+      </c>
       <c r="H66" s="3"/>
       <c r="I66" s="3"/>
       <c r="J66" s="3"/>
     </row>
     <row r="67" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A67" s="17" t="s">
-        <v>52</v>
-      </c>
+      <c r="A67" s="19"/>
       <c r="B67" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="C67" s="3"/>
-      <c r="D67" s="3"/>
-      <c r="E67" s="3"/>
-      <c r="F67" s="3"/>
-      <c r="G67" s="3"/>
+        <v>104</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="E67" s="5">
+        <v>42503</v>
+      </c>
+      <c r="F67" s="5">
+        <v>42503</v>
+      </c>
+      <c r="G67" s="3" t="s">
+        <v>102</v>
+      </c>
       <c r="H67" s="3"/>
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
     </row>
     <row r="68" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A68" s="17"/>
+      <c r="A68" s="19"/>
       <c r="B68" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="C68" s="3" t="s">
-        <v>112</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="C68" s="3"/>
       <c r="D68" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="E68" s="5">
-        <v>42500</v>
-      </c>
-      <c r="F68" s="5">
-        <v>42500</v>
-      </c>
-      <c r="G68" s="3" t="s">
-        <v>108</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="E68" s="3"/>
+      <c r="F68" s="3"/>
+      <c r="G68" s="3"/>
       <c r="H68" s="3"/>
       <c r="I68" s="3"/>
       <c r="J68" s="3"/>
     </row>
     <row r="69" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A69" s="17" t="s">
-        <v>85</v>
+      <c r="A69" s="19" t="s">
+        <v>46</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="C69" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="D69" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="E69" s="5">
-        <v>42501</v>
-      </c>
-      <c r="F69" s="5">
-        <v>42501</v>
-      </c>
-      <c r="G69" s="3" t="s">
-        <v>108</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="C69" s="3"/>
+      <c r="D69" s="3"/>
+      <c r="E69" s="3"/>
+      <c r="F69" s="3"/>
+      <c r="G69" s="3"/>
       <c r="H69" s="3"/>
       <c r="I69" s="3"/>
       <c r="J69" s="3"/>
     </row>
     <row r="70" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A70" s="17"/>
+      <c r="A70" s="19"/>
       <c r="B70" s="7" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="E70" s="5">
+        <v>42500</v>
+      </c>
+      <c r="F70" s="5">
+        <v>42500</v>
+      </c>
+      <c r="G70" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="H70" s="3"/>
+      <c r="I70" s="29" t="s">
+        <v>148</v>
+      </c>
+      <c r="J70" s="3"/>
+    </row>
+    <row r="71" spans="1:10" ht="21.95" customHeight="1">
+      <c r="A71" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="B71" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E71" s="5">
+        <v>42501</v>
+      </c>
+      <c r="F71" s="5">
+        <v>42501</v>
+      </c>
+      <c r="G71" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="H71" s="3"/>
+      <c r="I71" s="29" t="s">
+        <v>148</v>
+      </c>
+      <c r="J71" s="3"/>
+    </row>
+    <row r="72" spans="1:10" ht="21.95" customHeight="1">
+      <c r="A72" s="19"/>
+      <c r="B72" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E72" s="5">
         <v>42502</v>
       </c>
-      <c r="F70" s="5">
+      <c r="F72" s="5">
         <v>42502</v>
       </c>
-      <c r="G70" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="H70" s="3"/>
-      <c r="I70" s="3"/>
-      <c r="J70" s="3"/>
-    </row>
-    <row r="71" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A71" s="17"/>
-      <c r="B71" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="C71" s="3"/>
-      <c r="D71" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="E71" s="3"/>
-      <c r="F71" s="3"/>
-      <c r="G71" s="3"/>
-      <c r="H71" s="3"/>
-      <c r="I71" s="3"/>
-      <c r="J71" s="3"/>
-    </row>
-    <row r="72" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A72" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="B72" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="C72" s="3"/>
-      <c r="D72" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E72" s="3"/>
-      <c r="F72" s="3"/>
-      <c r="G72" s="3"/>
+      <c r="G72" s="3" t="s">
+        <v>102</v>
+      </c>
       <c r="H72" s="3"/>
-      <c r="I72" s="3"/>
+      <c r="I72" s="29" t="s">
+        <v>148</v>
+      </c>
       <c r="J72" s="3"/>
     </row>
     <row r="73" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A73" s="17"/>
+      <c r="A73" s="19"/>
       <c r="B73" s="7" t="s">
-        <v>132</v>
+        <v>81</v>
       </c>
       <c r="C73" s="3"/>
-      <c r="D73" s="3"/>
+      <c r="D73" s="3" t="s">
+        <v>94</v>
+      </c>
       <c r="E73" s="3"/>
       <c r="F73" s="3"/>
       <c r="G73" s="3"/>
@@ -2405,28 +2560,36 @@
       <c r="J73" s="3"/>
     </row>
     <row r="74" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A74" s="17"/>
+      <c r="A74" s="19" t="s">
+        <v>82</v>
+      </c>
       <c r="B74" s="7" t="s">
-        <v>133</v>
+        <v>72</v>
       </c>
       <c r="C74" s="3"/>
-      <c r="D74" s="3"/>
-      <c r="E74" s="3"/>
-      <c r="F74" s="3"/>
-      <c r="G74" s="3"/>
+      <c r="D74" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E74" s="28">
+        <v>42506</v>
+      </c>
+      <c r="F74" s="28">
+        <v>42507</v>
+      </c>
+      <c r="G74" s="27" t="s">
+        <v>102</v>
+      </c>
       <c r="H74" s="3"/>
       <c r="I74" s="3"/>
       <c r="J74" s="3"/>
     </row>
     <row r="75" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A75" s="17"/>
+      <c r="A75" s="19"/>
       <c r="B75" s="7" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="C75" s="3"/>
-      <c r="D75" s="3" t="s">
-        <v>100</v>
-      </c>
+      <c r="D75" s="3"/>
       <c r="E75" s="3"/>
       <c r="F75" s="3"/>
       <c r="G75" s="3"/>
@@ -2435,15 +2598,13 @@
       <c r="J75" s="3"/>
     </row>
     <row r="76" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A76" s="17" t="s">
-        <v>89</v>
-      </c>
+      <c r="A76" s="19"/>
       <c r="B76" s="7" t="s">
-        <v>90</v>
+        <v>127</v>
       </c>
       <c r="C76" s="3"/>
       <c r="D76" s="3" t="s">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="E76" s="3"/>
       <c r="F76" s="3"/>
@@ -2453,12 +2614,14 @@
       <c r="J76" s="3"/>
     </row>
     <row r="77" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A77" s="17"/>
+      <c r="A77" s="19"/>
       <c r="B77" s="7" t="s">
-        <v>91</v>
+        <v>128</v>
       </c>
       <c r="C77" s="3"/>
-      <c r="D77" s="3"/>
+      <c r="D77" s="3" t="s">
+        <v>94</v>
+      </c>
       <c r="E77" s="3"/>
       <c r="F77" s="3"/>
       <c r="G77" s="3"/>
@@ -2467,12 +2630,16 @@
       <c r="J77" s="3"/>
     </row>
     <row r="78" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A78" s="17"/>
+      <c r="A78" s="19" t="s">
+        <v>83</v>
+      </c>
       <c r="B78" s="7" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="C78" s="3"/>
-      <c r="D78" s="3"/>
+      <c r="D78" s="3" t="s">
+        <v>94</v>
+      </c>
       <c r="E78" s="3"/>
       <c r="F78" s="3"/>
       <c r="G78" s="3"/>
@@ -2481,9 +2648,9 @@
       <c r="J78" s="3"/>
     </row>
     <row r="79" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A79" s="17"/>
+      <c r="A79" s="19"/>
       <c r="B79" s="7" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="C79" s="3"/>
       <c r="D79" s="3"/>
@@ -2495,14 +2662,12 @@
       <c r="J79" s="3"/>
     </row>
     <row r="80" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A80" s="17"/>
+      <c r="A80" s="19"/>
       <c r="B80" s="7" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C80" s="3"/>
-      <c r="D80" s="3" t="s">
-        <v>100</v>
-      </c>
+      <c r="D80" s="3"/>
       <c r="E80" s="3"/>
       <c r="F80" s="3"/>
       <c r="G80" s="3"/>
@@ -2510,53 +2675,83 @@
       <c r="I80" s="3"/>
       <c r="J80" s="3"/>
     </row>
-    <row r="81" spans="1:2" ht="21.95" customHeight="1">
-      <c r="A81" s="17" t="s">
-        <v>126</v>
-      </c>
+    <row r="81" spans="1:10" ht="21.95" customHeight="1">
+      <c r="A81" s="19"/>
       <c r="B81" s="7" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" ht="21.95" customHeight="1">
-      <c r="A82" s="17"/>
+        <v>87</v>
+      </c>
+      <c r="C81" s="3"/>
+      <c r="D81" s="3"/>
+      <c r="E81" s="3"/>
+      <c r="F81" s="3"/>
+      <c r="G81" s="3"/>
+      <c r="H81" s="3"/>
+      <c r="I81" s="3"/>
+      <c r="J81" s="3"/>
+    </row>
+    <row r="82" spans="1:10" ht="21.95" customHeight="1">
+      <c r="A82" s="19"/>
       <c r="B82" s="7" t="s">
-        <v>128</v>
+        <v>88</v>
+      </c>
+      <c r="C82" s="3"/>
+      <c r="D82" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E82" s="3"/>
+      <c r="F82" s="3"/>
+      <c r="G82" s="3"/>
+      <c r="H82" s="3"/>
+      <c r="I82" s="3"/>
+      <c r="J82" s="3"/>
+    </row>
+    <row r="83" spans="1:10" ht="21.95" customHeight="1">
+      <c r="A83" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="B83" s="7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" ht="21.95" customHeight="1">
+      <c r="A84" s="19"/>
+      <c r="B84" s="7" t="s">
+        <v>122</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="A57:A61"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A40:J40"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A42:J42"/>
+    <mergeCell ref="A74:A77"/>
+    <mergeCell ref="A78:A82"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
     <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:J7"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="A24:A26"/>
-    <mergeCell ref="A72:A75"/>
-    <mergeCell ref="A76:A80"/>
-    <mergeCell ref="A8:A17"/>
-    <mergeCell ref="A34:A38"/>
-    <mergeCell ref="A56:J56"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="A64:A66"/>
-    <mergeCell ref="A69:A71"/>
-    <mergeCell ref="A41:A43"/>
-    <mergeCell ref="A44:A46"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="A49:A51"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="A30:A33"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="A66:A68"/>
+    <mergeCell ref="A71:A73"/>
+    <mergeCell ref="A43:A45"/>
+    <mergeCell ref="A46:A48"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="A51:A53"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="A59:A63"/>
+    <mergeCell ref="A29:A31"/>
+    <mergeCell ref="A32:A35"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A36:A40"/>
+    <mergeCell ref="A58:J58"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:J9"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A26:A28"/>
+    <mergeCell ref="A10:A19"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/trunk/doc/3w联盟微信开发计划表.xlsx
+++ b/trunk/doc/3w联盟微信开发计划表.xlsx
@@ -816,38 +816,38 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1145,7 +1145,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
       <selection activeCell="I72" sqref="I72"/>
     </sheetView>
   </sheetViews>
@@ -1165,10 +1165,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="24"/>
+      <c r="B1" s="26"/>
       <c r="C1" s="1" t="s">
         <v>24</v>
       </c>
@@ -1195,21 +1195,21 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="36" customHeight="1">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="27" t="s">
         <v>100</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
     </row>
     <row r="3" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="22" t="s">
         <v>143</v>
       </c>
       <c r="B3" s="18" t="s">
@@ -1231,7 +1231,7 @@
       <c r="J3" s="3"/>
     </row>
     <row r="4" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A4" s="19"/>
+      <c r="A4" s="22"/>
       <c r="B4" s="18" t="s">
         <v>142</v>
       </c>
@@ -1251,7 +1251,7 @@
       <c r="J4" s="3"/>
     </row>
     <row r="5" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A5" s="19"/>
+      <c r="A5" s="22"/>
       <c r="B5" s="18" t="s">
         <v>144</v>
       </c>
@@ -1293,10 +1293,10 @@
       <c r="J6" s="3"/>
     </row>
     <row r="7" spans="1:10" ht="42" customHeight="1">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="22"/>
+      <c r="B7" s="29"/>
       <c r="C7" s="4" t="s">
         <v>7</v>
       </c>
@@ -1315,10 +1315,10 @@
       <c r="J7" s="3"/>
     </row>
     <row r="8" spans="1:10" ht="41.25" customHeight="1">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="22"/>
+      <c r="B8" s="29"/>
       <c r="C8" s="4" t="s">
         <v>10</v>
       </c>
@@ -1339,7 +1339,7 @@
       <c r="J8" s="3"/>
     </row>
     <row r="9" spans="1:10" s="13" customFormat="1" ht="43.5" customHeight="1">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="24" t="s">
         <v>101</v>
       </c>
       <c r="B9" s="23"/>
@@ -1353,7 +1353,7 @@
       <c r="J9" s="23"/>
     </row>
     <row r="10" spans="1:10" s="13" customFormat="1" ht="21.95" customHeight="1">
-      <c r="A10" s="19" t="s">
+      <c r="A10" s="22" t="s">
         <v>13</v>
       </c>
       <c r="B10" s="15" t="s">
@@ -1373,13 +1373,13 @@
         <v>90</v>
       </c>
       <c r="H10" s="14"/>
-      <c r="I10" s="29" t="s">
+      <c r="I10" s="21" t="s">
         <v>148</v>
       </c>
       <c r="J10" s="14"/>
     </row>
     <row r="11" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A11" s="19"/>
+      <c r="A11" s="22"/>
       <c r="B11" s="7" t="s">
         <v>14</v>
       </c>
@@ -1399,13 +1399,13 @@
         <v>90</v>
       </c>
       <c r="H11" s="3"/>
-      <c r="I11" s="29" t="s">
+      <c r="I11" s="21" t="s">
         <v>148</v>
       </c>
       <c r="J11" s="3"/>
     </row>
     <row r="12" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A12" s="19"/>
+      <c r="A12" s="22"/>
       <c r="B12" s="7" t="s">
         <v>16</v>
       </c>
@@ -1425,13 +1425,13 @@
         <v>90</v>
       </c>
       <c r="H12" s="3"/>
-      <c r="I12" s="29" t="s">
+      <c r="I12" s="21" t="s">
         <v>148</v>
       </c>
       <c r="J12" s="3"/>
     </row>
     <row r="13" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A13" s="19"/>
+      <c r="A13" s="22"/>
       <c r="B13" s="7" t="s">
         <v>18</v>
       </c>
@@ -1451,13 +1451,13 @@
         <v>90</v>
       </c>
       <c r="H13" s="3"/>
-      <c r="I13" s="29" t="s">
+      <c r="I13" s="21" t="s">
         <v>148</v>
       </c>
       <c r="J13" s="3"/>
     </row>
     <row r="14" spans="1:10" ht="105.75" customHeight="1">
-      <c r="A14" s="19"/>
+      <c r="A14" s="22"/>
       <c r="B14" s="7" t="s">
         <v>19</v>
       </c>
@@ -1473,7 +1473,7 @@
       <c r="J14" s="3"/>
     </row>
     <row r="15" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A15" s="19"/>
+      <c r="A15" s="22"/>
       <c r="B15" s="7" t="s">
         <v>20</v>
       </c>
@@ -1489,7 +1489,7 @@
       <c r="J15" s="3"/>
     </row>
     <row r="16" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A16" s="19"/>
+      <c r="A16" s="22"/>
       <c r="B16" s="7" t="s">
         <v>21</v>
       </c>
@@ -1505,7 +1505,7 @@
       <c r="J16" s="3"/>
     </row>
     <row r="17" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A17" s="19"/>
+      <c r="A17" s="22"/>
       <c r="B17" s="7" t="s">
         <v>111</v>
       </c>
@@ -1527,7 +1527,7 @@
       <c r="J17" s="3"/>
     </row>
     <row r="18" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A18" s="19"/>
+      <c r="A18" s="22"/>
       <c r="B18" s="7" t="s">
         <v>112</v>
       </c>
@@ -1549,7 +1549,7 @@
       <c r="J18" s="3"/>
     </row>
     <row r="19" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A19" s="19"/>
+      <c r="A19" s="22"/>
       <c r="B19" s="7" t="s">
         <v>113</v>
       </c>
@@ -1571,7 +1571,7 @@
       <c r="J19" s="3"/>
     </row>
     <row r="20" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A20" s="19" t="s">
+      <c r="A20" s="22" t="s">
         <v>22</v>
       </c>
       <c r="B20" s="7" t="s">
@@ -1595,7 +1595,7 @@
       <c r="J20" s="3"/>
     </row>
     <row r="21" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A21" s="19"/>
+      <c r="A21" s="22"/>
       <c r="B21" s="7" t="s">
         <v>114</v>
       </c>
@@ -1617,7 +1617,7 @@
       <c r="J21" s="3"/>
     </row>
     <row r="22" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A22" s="19"/>
+      <c r="A22" s="22"/>
       <c r="B22" s="7" t="s">
         <v>129</v>
       </c>
@@ -1639,7 +1639,7 @@
       <c r="J22" s="3"/>
     </row>
     <row r="23" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A23" s="19" t="s">
+      <c r="A23" s="22" t="s">
         <v>25</v>
       </c>
       <c r="B23" s="7" t="s">
@@ -1655,7 +1655,7 @@
       <c r="J23" s="3"/>
     </row>
     <row r="24" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A24" s="19"/>
+      <c r="A24" s="22"/>
       <c r="B24" s="7" t="s">
         <v>130</v>
       </c>
@@ -1693,7 +1693,7 @@
       <c r="J25" s="3"/>
     </row>
     <row r="26" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A26" s="19" t="s">
+      <c r="A26" s="22" t="s">
         <v>40</v>
       </c>
       <c r="B26" s="10" t="s">
@@ -1711,7 +1711,7 @@
       <c r="J26" s="3"/>
     </row>
     <row r="27" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A27" s="19"/>
+      <c r="A27" s="22"/>
       <c r="B27" s="7" t="s">
         <v>28</v>
       </c>
@@ -1727,7 +1727,7 @@
       <c r="J27" s="3"/>
     </row>
     <row r="28" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A28" s="19"/>
+      <c r="A28" s="22"/>
       <c r="B28" s="7" t="s">
         <v>42</v>
       </c>
@@ -1743,7 +1743,7 @@
       <c r="J28" s="3"/>
     </row>
     <row r="29" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A29" s="19" t="s">
+      <c r="A29" s="22" t="s">
         <v>43</v>
       </c>
       <c r="B29" s="7" t="s">
@@ -1759,7 +1759,7 @@
       <c r="J29" s="3"/>
     </row>
     <row r="30" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A30" s="19"/>
+      <c r="A30" s="22"/>
       <c r="B30" s="7" t="s">
         <v>45</v>
       </c>
@@ -1773,7 +1773,7 @@
       <c r="J30" s="3"/>
     </row>
     <row r="31" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A31" s="19"/>
+      <c r="A31" s="22"/>
       <c r="B31" s="7" t="s">
         <v>29</v>
       </c>
@@ -1795,7 +1795,7 @@
       <c r="J31" s="3"/>
     </row>
     <row r="32" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A32" s="19" t="s">
+      <c r="A32" s="22" t="s">
         <v>46</v>
       </c>
       <c r="B32" s="7" t="s">
@@ -1819,7 +1819,7 @@
       <c r="J32" s="3"/>
     </row>
     <row r="33" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A33" s="19"/>
+      <c r="A33" s="22"/>
       <c r="B33" s="7" t="s">
         <v>48</v>
       </c>
@@ -1835,7 +1835,7 @@
       <c r="J33" s="3"/>
     </row>
     <row r="34" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A34" s="19"/>
+      <c r="A34" s="22"/>
       <c r="B34" s="7" t="s">
         <v>30</v>
       </c>
@@ -1851,7 +1851,7 @@
       <c r="J34" s="3"/>
     </row>
     <row r="35" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A35" s="19"/>
+      <c r="A35" s="22"/>
       <c r="B35" s="7" t="s">
         <v>31</v>
       </c>
@@ -1867,7 +1867,7 @@
       <c r="J35" s="3"/>
     </row>
     <row r="36" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A36" s="19" t="s">
+      <c r="A36" s="22" t="s">
         <v>49</v>
       </c>
       <c r="B36" s="7" t="s">
@@ -1891,7 +1891,7 @@
       <c r="J36" s="3"/>
     </row>
     <row r="37" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A37" s="19"/>
+      <c r="A37" s="22"/>
       <c r="B37" s="7" t="s">
         <v>50</v>
       </c>
@@ -1905,7 +1905,7 @@
       <c r="J37" s="3"/>
     </row>
     <row r="38" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A38" s="19"/>
+      <c r="A38" s="22"/>
       <c r="B38" s="7" t="s">
         <v>32</v>
       </c>
@@ -1919,7 +1919,7 @@
       <c r="J38" s="3"/>
     </row>
     <row r="39" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A39" s="19"/>
+      <c r="A39" s="22"/>
       <c r="B39" s="7" t="s">
         <v>33</v>
       </c>
@@ -1933,7 +1933,7 @@
       <c r="J39" s="3"/>
     </row>
     <row r="40" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A40" s="19"/>
+      <c r="A40" s="22"/>
       <c r="B40" s="7" t="s">
         <v>34</v>
       </c>
@@ -1963,21 +1963,21 @@
       <c r="J41" s="3"/>
     </row>
     <row r="42" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A42" s="20" t="s">
+      <c r="A42" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="B42" s="21"/>
-      <c r="C42" s="21"/>
-      <c r="D42" s="21"/>
-      <c r="E42" s="21"/>
-      <c r="F42" s="21"/>
-      <c r="G42" s="21"/>
-      <c r="H42" s="21"/>
-      <c r="I42" s="21"/>
-      <c r="J42" s="21"/>
+      <c r="B42" s="25"/>
+      <c r="C42" s="25"/>
+      <c r="D42" s="25"/>
+      <c r="E42" s="25"/>
+      <c r="F42" s="25"/>
+      <c r="G42" s="25"/>
+      <c r="H42" s="25"/>
+      <c r="I42" s="25"/>
+      <c r="J42" s="25"/>
     </row>
     <row r="43" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A43" s="19" t="s">
+      <c r="A43" s="22" t="s">
         <v>63</v>
       </c>
       <c r="B43" s="7" t="s">
@@ -1995,7 +1995,7 @@
       <c r="J43" s="3"/>
     </row>
     <row r="44" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A44" s="19"/>
+      <c r="A44" s="22"/>
       <c r="B44" s="7" t="s">
         <v>65</v>
       </c>
@@ -2008,7 +2008,7 @@
       <c r="J44" s="3"/>
     </row>
     <row r="45" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A45" s="19"/>
+      <c r="A45" s="22"/>
       <c r="B45" s="7" t="s">
         <v>52</v>
       </c>
@@ -2024,7 +2024,7 @@
       <c r="J45" s="3"/>
     </row>
     <row r="46" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A46" s="19" t="s">
+      <c r="A46" s="22" t="s">
         <v>66</v>
       </c>
       <c r="B46" s="7" t="s">
@@ -2042,7 +2042,7 @@
       <c r="J46" s="3"/>
     </row>
     <row r="47" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A47" s="19"/>
+      <c r="A47" s="22"/>
       <c r="B47" s="7" t="s">
         <v>67</v>
       </c>
@@ -2058,7 +2058,7 @@
       <c r="J47" s="3"/>
     </row>
     <row r="48" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A48" s="19"/>
+      <c r="A48" s="22"/>
       <c r="B48" s="7" t="s">
         <v>55</v>
       </c>
@@ -2074,7 +2074,7 @@
       <c r="J48" s="3"/>
     </row>
     <row r="49" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A49" s="19" t="s">
+      <c r="A49" s="22" t="s">
         <v>68</v>
       </c>
       <c r="B49" s="7" t="s">
@@ -2092,7 +2092,7 @@
       <c r="J49" s="3"/>
     </row>
     <row r="50" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A50" s="19"/>
+      <c r="A50" s="22"/>
       <c r="B50" s="7" t="s">
         <v>57</v>
       </c>
@@ -2108,7 +2108,7 @@
       <c r="J50" s="3"/>
     </row>
     <row r="51" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A51" s="19" t="s">
+      <c r="A51" s="22" t="s">
         <v>69</v>
       </c>
       <c r="B51" s="7" t="s">
@@ -2126,7 +2126,7 @@
       <c r="J51" s="3"/>
     </row>
     <row r="52" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A52" s="19"/>
+      <c r="A52" s="22"/>
       <c r="B52" s="7" t="s">
         <v>58</v>
       </c>
@@ -2142,7 +2142,7 @@
       <c r="J52" s="3"/>
     </row>
     <row r="53" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A53" s="19"/>
+      <c r="A53" s="22"/>
       <c r="B53" s="7" t="s">
         <v>98</v>
       </c>
@@ -2158,7 +2158,7 @@
       <c r="J53" s="3"/>
     </row>
     <row r="54" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A54" s="19" t="s">
+      <c r="A54" s="22" t="s">
         <v>71</v>
       </c>
       <c r="B54" s="7" t="s">
@@ -2174,7 +2174,7 @@
       <c r="J54" s="3"/>
     </row>
     <row r="55" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A55" s="19"/>
+      <c r="A55" s="22"/>
       <c r="B55" s="7" t="s">
         <v>59</v>
       </c>
@@ -2190,7 +2190,7 @@
       <c r="J55" s="3"/>
     </row>
     <row r="56" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A56" s="19" t="s">
+      <c r="A56" s="22" t="s">
         <v>116</v>
       </c>
       <c r="B56" s="7" t="s">
@@ -2206,7 +2206,7 @@
       <c r="J56" s="3"/>
     </row>
     <row r="57" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A57" s="19"/>
+      <c r="A57" s="22"/>
       <c r="B57" s="7" t="s">
         <v>118</v>
       </c>
@@ -2220,21 +2220,21 @@
       <c r="J57" s="3"/>
     </row>
     <row r="58" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A58" s="20" t="s">
+      <c r="A58" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="B58" s="21"/>
-      <c r="C58" s="21"/>
-      <c r="D58" s="21"/>
-      <c r="E58" s="21"/>
-      <c r="F58" s="21"/>
-      <c r="G58" s="21"/>
-      <c r="H58" s="21"/>
-      <c r="I58" s="21"/>
-      <c r="J58" s="21"/>
+      <c r="B58" s="25"/>
+      <c r="C58" s="25"/>
+      <c r="D58" s="25"/>
+      <c r="E58" s="25"/>
+      <c r="F58" s="25"/>
+      <c r="G58" s="25"/>
+      <c r="H58" s="25"/>
+      <c r="I58" s="25"/>
+      <c r="J58" s="25"/>
     </row>
     <row r="59" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A59" s="19" t="s">
+      <c r="A59" s="22" t="s">
         <v>63</v>
       </c>
       <c r="B59" s="7" t="s">
@@ -2254,7 +2254,7 @@
       <c r="J59" s="3"/>
     </row>
     <row r="60" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A60" s="19"/>
+      <c r="A60" s="22"/>
       <c r="B60" s="7" t="s">
         <v>65</v>
       </c>
@@ -2262,23 +2262,23 @@
       <c r="D60" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="E60" s="28">
+      <c r="E60" s="20">
         <v>42495</v>
       </c>
-      <c r="F60" s="28">
+      <c r="F60" s="20">
         <v>42495</v>
       </c>
-      <c r="G60" s="27" t="s">
+      <c r="G60" s="19" t="s">
         <v>11</v>
       </c>
       <c r="H60" s="3"/>
-      <c r="I60" s="29" t="s">
+      <c r="I60" s="21" t="s">
         <v>148</v>
       </c>
       <c r="J60" s="3"/>
     </row>
     <row r="61" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A61" s="19"/>
+      <c r="A61" s="22"/>
       <c r="B61" s="7" t="s">
         <v>74</v>
       </c>
@@ -2296,7 +2296,7 @@
       <c r="J61" s="3"/>
     </row>
     <row r="62" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A62" s="19"/>
+      <c r="A62" s="22"/>
       <c r="B62" s="7" t="s">
         <v>60</v>
       </c>
@@ -2314,7 +2314,7 @@
       <c r="J62" s="3"/>
     </row>
     <row r="63" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A63" s="19"/>
+      <c r="A63" s="22"/>
       <c r="B63" s="7" t="s">
         <v>119</v>
       </c>
@@ -2332,7 +2332,7 @@
       <c r="J63" s="3"/>
     </row>
     <row r="64" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A64" s="19" t="s">
+      <c r="A64" s="22" t="s">
         <v>75</v>
       </c>
       <c r="B64" s="7" t="s">
@@ -2352,13 +2352,13 @@
         <v>12</v>
       </c>
       <c r="H64" s="3"/>
-      <c r="I64" s="29" t="s">
+      <c r="I64" s="21" t="s">
         <v>148</v>
       </c>
       <c r="J64" s="3"/>
     </row>
     <row r="65" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A65" s="19"/>
+      <c r="A65" s="22"/>
       <c r="B65" s="7" t="s">
         <v>76</v>
       </c>
@@ -2376,13 +2376,13 @@
         <v>12</v>
       </c>
       <c r="H65" s="3"/>
-      <c r="I65" s="29" t="s">
+      <c r="I65" s="21" t="s">
         <v>148</v>
       </c>
       <c r="J65" s="3"/>
     </row>
     <row r="66" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A66" s="19" t="s">
+      <c r="A66" s="22" t="s">
         <v>39</v>
       </c>
       <c r="B66" s="7" t="s">
@@ -2408,7 +2408,7 @@
       <c r="J66" s="3"/>
     </row>
     <row r="67" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A67" s="19"/>
+      <c r="A67" s="22"/>
       <c r="B67" s="7" t="s">
         <v>104</v>
       </c>
@@ -2432,7 +2432,7 @@
       <c r="J67" s="3"/>
     </row>
     <row r="68" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A68" s="19"/>
+      <c r="A68" s="22"/>
       <c r="B68" s="7" t="s">
         <v>103</v>
       </c>
@@ -2448,7 +2448,7 @@
       <c r="J68" s="3"/>
     </row>
     <row r="69" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A69" s="19" t="s">
+      <c r="A69" s="22" t="s">
         <v>46</v>
       </c>
       <c r="B69" s="7" t="s">
@@ -2464,7 +2464,7 @@
       <c r="J69" s="3"/>
     </row>
     <row r="70" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A70" s="19"/>
+      <c r="A70" s="22"/>
       <c r="B70" s="7" t="s">
         <v>78</v>
       </c>
@@ -2484,13 +2484,13 @@
         <v>102</v>
       </c>
       <c r="H70" s="3"/>
-      <c r="I70" s="29" t="s">
+      <c r="I70" s="21" t="s">
         <v>148</v>
       </c>
       <c r="J70" s="3"/>
     </row>
     <row r="71" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A71" s="19" t="s">
+      <c r="A71" s="22" t="s">
         <v>79</v>
       </c>
       <c r="B71" s="7" t="s">
@@ -2512,13 +2512,13 @@
         <v>102</v>
       </c>
       <c r="H71" s="3"/>
-      <c r="I71" s="29" t="s">
+      <c r="I71" s="21" t="s">
         <v>148</v>
       </c>
       <c r="J71" s="3"/>
     </row>
     <row r="72" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A72" s="19"/>
+      <c r="A72" s="22"/>
       <c r="B72" s="7" t="s">
         <v>80</v>
       </c>
@@ -2538,13 +2538,13 @@
         <v>102</v>
       </c>
       <c r="H72" s="3"/>
-      <c r="I72" s="29" t="s">
+      <c r="I72" s="21" t="s">
         <v>148</v>
       </c>
       <c r="J72" s="3"/>
     </row>
     <row r="73" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A73" s="19"/>
+      <c r="A73" s="22"/>
       <c r="B73" s="7" t="s">
         <v>81</v>
       </c>
@@ -2560,7 +2560,7 @@
       <c r="J73" s="3"/>
     </row>
     <row r="74" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A74" s="19" t="s">
+      <c r="A74" s="22" t="s">
         <v>82</v>
       </c>
       <c r="B74" s="7" t="s">
@@ -2570,13 +2570,13 @@
       <c r="D74" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E74" s="28">
+      <c r="E74" s="20">
         <v>42506</v>
       </c>
-      <c r="F74" s="28">
+      <c r="F74" s="20">
         <v>42507</v>
       </c>
-      <c r="G74" s="27" t="s">
+      <c r="G74" s="19" t="s">
         <v>102</v>
       </c>
       <c r="H74" s="3"/>
@@ -2584,7 +2584,7 @@
       <c r="J74" s="3"/>
     </row>
     <row r="75" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A75" s="19"/>
+      <c r="A75" s="22"/>
       <c r="B75" s="7" t="s">
         <v>126</v>
       </c>
@@ -2598,7 +2598,7 @@
       <c r="J75" s="3"/>
     </row>
     <row r="76" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A76" s="19"/>
+      <c r="A76" s="22"/>
       <c r="B76" s="7" t="s">
         <v>127</v>
       </c>
@@ -2614,7 +2614,7 @@
       <c r="J76" s="3"/>
     </row>
     <row r="77" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A77" s="19"/>
+      <c r="A77" s="22"/>
       <c r="B77" s="7" t="s">
         <v>128</v>
       </c>
@@ -2630,7 +2630,7 @@
       <c r="J77" s="3"/>
     </row>
     <row r="78" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A78" s="19" t="s">
+      <c r="A78" s="22" t="s">
         <v>83</v>
       </c>
       <c r="B78" s="7" t="s">
@@ -2648,7 +2648,7 @@
       <c r="J78" s="3"/>
     </row>
     <row r="79" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A79" s="19"/>
+      <c r="A79" s="22"/>
       <c r="B79" s="7" t="s">
         <v>85</v>
       </c>
@@ -2662,7 +2662,7 @@
       <c r="J79" s="3"/>
     </row>
     <row r="80" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A80" s="19"/>
+      <c r="A80" s="22"/>
       <c r="B80" s="7" t="s">
         <v>86</v>
       </c>
@@ -2676,7 +2676,7 @@
       <c r="J80" s="3"/>
     </row>
     <row r="81" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A81" s="19"/>
+      <c r="A81" s="22"/>
       <c r="B81" s="7" t="s">
         <v>87</v>
       </c>
@@ -2690,7 +2690,7 @@
       <c r="J81" s="3"/>
     </row>
     <row r="82" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A82" s="19"/>
+      <c r="A82" s="22"/>
       <c r="B82" s="7" t="s">
         <v>88</v>
       </c>
@@ -2706,7 +2706,7 @@
       <c r="J82" s="3"/>
     </row>
     <row r="83" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A83" s="19" t="s">
+      <c r="A83" s="22" t="s">
         <v>120</v>
       </c>
       <c r="B83" s="7" t="s">
@@ -2714,44 +2714,44 @@
       </c>
     </row>
     <row r="84" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A84" s="19"/>
+      <c r="A84" s="22"/>
       <c r="B84" s="7" t="s">
         <v>122</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A26:A28"/>
+    <mergeCell ref="A10:A19"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="A43:A45"/>
+    <mergeCell ref="A46:A48"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="A51:A53"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="A29:A31"/>
+    <mergeCell ref="A32:A35"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A36:A40"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:J9"/>
     <mergeCell ref="A83:A84"/>
     <mergeCell ref="A69:A70"/>
     <mergeCell ref="A41:B41"/>
     <mergeCell ref="A42:J42"/>
     <mergeCell ref="A74:A77"/>
     <mergeCell ref="A78:A82"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A56:A57"/>
     <mergeCell ref="A64:A65"/>
     <mergeCell ref="A66:A68"/>
     <mergeCell ref="A71:A73"/>
-    <mergeCell ref="A43:A45"/>
-    <mergeCell ref="A46:A48"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="A51:A53"/>
-    <mergeCell ref="A54:A55"/>
     <mergeCell ref="A59:A63"/>
-    <mergeCell ref="A29:A31"/>
-    <mergeCell ref="A32:A35"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="A36:A40"/>
     <mergeCell ref="A58:J58"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:J9"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="A26:A28"/>
-    <mergeCell ref="A10:A19"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/trunk/doc/3w联盟微信开发计划表.xlsx
+++ b/trunk/doc/3w联盟微信开发计划表.xlsx
@@ -828,26 +828,26 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1145,8 +1145,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="I72" sqref="I72"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21.95" customHeight="1"/>
@@ -1165,10 +1165,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="26"/>
+      <c r="B1" s="23"/>
       <c r="C1" s="1" t="s">
         <v>24</v>
       </c>
@@ -1195,18 +1195,18 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="36" customHeight="1">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="24" t="s">
         <v>100</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
     </row>
     <row r="3" spans="1:10" ht="21.95" customHeight="1">
       <c r="A3" s="22" t="s">
@@ -1271,10 +1271,10 @@
       <c r="J5" s="3"/>
     </row>
     <row r="6" spans="1:10" ht="54" customHeight="1">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="23"/>
+      <c r="B6" s="26"/>
       <c r="C6" s="4" t="s">
         <v>131</v>
       </c>
@@ -1293,10 +1293,10 @@
       <c r="J6" s="3"/>
     </row>
     <row r="7" spans="1:10" ht="42" customHeight="1">
-      <c r="A7" s="29" t="s">
+      <c r="A7" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="29"/>
+      <c r="B7" s="27"/>
       <c r="C7" s="4" t="s">
         <v>7</v>
       </c>
@@ -1315,10 +1315,10 @@
       <c r="J7" s="3"/>
     </row>
     <row r="8" spans="1:10" ht="41.25" customHeight="1">
-      <c r="A8" s="29" t="s">
+      <c r="A8" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="29"/>
+      <c r="B8" s="27"/>
       <c r="C8" s="4" t="s">
         <v>10</v>
       </c>
@@ -1339,18 +1339,18 @@
       <c r="J8" s="3"/>
     </row>
     <row r="9" spans="1:10" s="13" customFormat="1" ht="43.5" customHeight="1">
-      <c r="A9" s="24" t="s">
+      <c r="A9" s="28" t="s">
         <v>101</v>
       </c>
-      <c r="B9" s="23"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="23"/>
-      <c r="I9" s="23"/>
-      <c r="J9" s="23"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
     </row>
     <row r="10" spans="1:10" s="13" customFormat="1" ht="21.95" customHeight="1">
       <c r="A10" s="22" t="s">
@@ -1947,10 +1947,10 @@
       <c r="J40" s="3"/>
     </row>
     <row r="41" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A41" s="23" t="s">
+      <c r="A41" s="26" t="s">
         <v>115</v>
       </c>
-      <c r="B41" s="23"/>
+      <c r="B41" s="26"/>
       <c r="C41" s="3" t="s">
         <v>51</v>
       </c>
@@ -1963,18 +1963,18 @@
       <c r="J41" s="3"/>
     </row>
     <row r="42" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A42" s="24" t="s">
+      <c r="A42" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="B42" s="25"/>
-      <c r="C42" s="25"/>
-      <c r="D42" s="25"/>
-      <c r="E42" s="25"/>
-      <c r="F42" s="25"/>
-      <c r="G42" s="25"/>
-      <c r="H42" s="25"/>
-      <c r="I42" s="25"/>
-      <c r="J42" s="25"/>
+      <c r="B42" s="29"/>
+      <c r="C42" s="29"/>
+      <c r="D42" s="29"/>
+      <c r="E42" s="29"/>
+      <c r="F42" s="29"/>
+      <c r="G42" s="29"/>
+      <c r="H42" s="29"/>
+      <c r="I42" s="29"/>
+      <c r="J42" s="29"/>
     </row>
     <row r="43" spans="1:10" ht="21.95" customHeight="1">
       <c r="A43" s="22" t="s">
@@ -2220,18 +2220,18 @@
       <c r="J57" s="3"/>
     </row>
     <row r="58" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A58" s="24" t="s">
+      <c r="A58" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="B58" s="25"/>
-      <c r="C58" s="25"/>
-      <c r="D58" s="25"/>
-      <c r="E58" s="25"/>
-      <c r="F58" s="25"/>
-      <c r="G58" s="25"/>
-      <c r="H58" s="25"/>
-      <c r="I58" s="25"/>
-      <c r="J58" s="25"/>
+      <c r="B58" s="29"/>
+      <c r="C58" s="29"/>
+      <c r="D58" s="29"/>
+      <c r="E58" s="29"/>
+      <c r="F58" s="29"/>
+      <c r="G58" s="29"/>
+      <c r="H58" s="29"/>
+      <c r="I58" s="29"/>
+      <c r="J58" s="29"/>
     </row>
     <row r="59" spans="1:10" ht="21.95" customHeight="1">
       <c r="A59" s="22" t="s">
@@ -2721,26 +2721,6 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="A26:A28"/>
-    <mergeCell ref="A10:A19"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="A43:A45"/>
-    <mergeCell ref="A46:A48"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="A51:A53"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="A29:A31"/>
-    <mergeCell ref="A32:A35"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="A36:A40"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:J9"/>
     <mergeCell ref="A83:A84"/>
     <mergeCell ref="A69:A70"/>
     <mergeCell ref="A41:B41"/>
@@ -2752,6 +2732,26 @@
     <mergeCell ref="A71:A73"/>
     <mergeCell ref="A59:A63"/>
     <mergeCell ref="A58:J58"/>
+    <mergeCell ref="A29:A31"/>
+    <mergeCell ref="A32:A35"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A36:A40"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:J9"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="A43:A45"/>
+    <mergeCell ref="A46:A48"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="A51:A53"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A26:A28"/>
+    <mergeCell ref="A10:A19"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/trunk/doc/3w联盟微信开发计划表.xlsx
+++ b/trunk/doc/3w联盟微信开发计划表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="157">
   <si>
     <t>负责人</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -416,10 +416,6 @@
   </si>
   <si>
     <t>保险公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1天</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -513,87 +509,139 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>财务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>财务管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账单收入记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基金设置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绑定及删除银行卡、列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数设置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>行业管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除好友</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>业务推送</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平面没有效果图，暂时根据交互，做些基本的，提供给开发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卢迪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>田恭铭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>田恭铭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>朱子秋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>朱子秋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一级页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二级页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信平面ui设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剩下的功能模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据开发进度确定优先级，配合开发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>登录记录</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>财务</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>财务管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>账单收入记录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>任务类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>基金设置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>绑定及删除银行卡、列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参数设置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>行业管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除好友</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>业务推送</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>平面没有效果图，暂时根据交互，做些基本的，提供给开发</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5天</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>卢迪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>田恭铭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>田恭铭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3天</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>朱子秋</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>朱子秋</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2天</t>
+    <t>唐彬棋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>唐彬棋</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -601,43 +649,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>一级页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>二级页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>微信平面ui设计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>剩下的功能模块</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>根据开发进度确定优先级，配合开发</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4天</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4天</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1天</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1天</t>
+    <t>会员等级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保险项</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增查改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增查改</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -828,6 +852,18 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -836,18 +872,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1143,10 +1167,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J84"/>
+  <dimension ref="A1:J86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="F70" sqref="F70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21.95" customHeight="1"/>
@@ -1165,10 +1189,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="23"/>
+      <c r="B1" s="27"/>
       <c r="C1" s="1" t="s">
         <v>24</v>
       </c>
@@ -1195,25 +1219,25 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="36" customHeight="1">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="28" t="s">
         <v>100</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
     </row>
     <row r="3" spans="1:10" ht="21.95" customHeight="1">
       <c r="A3" s="22" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="6"/>
@@ -1224,7 +1248,7 @@
         <v>42513</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
@@ -1233,7 +1257,7 @@
     <row r="4" spans="1:10" ht="21.95" customHeight="1">
       <c r="A4" s="22"/>
       <c r="B4" s="18" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="17"/>
@@ -1244,7 +1268,7 @@
         <v>42521</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
@@ -1253,10 +1277,10 @@
     <row r="5" spans="1:10" ht="21.95" customHeight="1">
       <c r="A5" s="22"/>
       <c r="B5" s="18" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D5" s="17"/>
       <c r="E5" s="5">
@@ -1264,19 +1288,19 @@
       </c>
       <c r="F5" s="5"/>
       <c r="G5" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
     </row>
     <row r="6" spans="1:10" ht="54" customHeight="1">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="26"/>
+      <c r="B6" s="23"/>
       <c r="C6" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>4</v>
@@ -1287,16 +1311,16 @@
         <v>5</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
     </row>
     <row r="7" spans="1:10" ht="42" customHeight="1">
-      <c r="A7" s="27" t="s">
+      <c r="A7" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="27"/>
+      <c r="B7" s="26"/>
       <c r="C7" s="4" t="s">
         <v>7</v>
       </c>
@@ -1308,17 +1332,17 @@
         <v>42507</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
     </row>
     <row r="8" spans="1:10" ht="41.25" customHeight="1">
-      <c r="A8" s="27" t="s">
+      <c r="A8" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="27"/>
+      <c r="B8" s="26"/>
       <c r="C8" s="4" t="s">
         <v>10</v>
       </c>
@@ -1339,18 +1363,18 @@
       <c r="J8" s="3"/>
     </row>
     <row r="9" spans="1:10" s="13" customFormat="1" ht="43.5" customHeight="1">
-      <c r="A9" s="28" t="s">
+      <c r="A9" s="24" t="s">
         <v>101</v>
       </c>
-      <c r="B9" s="26"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="26"/>
-      <c r="J9" s="26"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="23"/>
     </row>
     <row r="10" spans="1:10" s="13" customFormat="1" ht="21.95" customHeight="1">
       <c r="A10" s="22" t="s">
@@ -1374,7 +1398,7 @@
       </c>
       <c r="H10" s="14"/>
       <c r="I10" s="21" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="J10" s="14"/>
     </row>
@@ -1400,7 +1424,7 @@
       </c>
       <c r="H11" s="3"/>
       <c r="I11" s="21" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="J11" s="3"/>
     </row>
@@ -1426,7 +1450,7 @@
       </c>
       <c r="H12" s="3"/>
       <c r="I12" s="21" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="J12" s="3"/>
     </row>
@@ -1436,7 +1460,7 @@
         <v>18</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>91</v>
@@ -1452,7 +1476,7 @@
       </c>
       <c r="H13" s="3"/>
       <c r="I13" s="21" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="J13" s="3"/>
     </row>
@@ -1462,7 +1486,7 @@
         <v>19</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
@@ -1478,7 +1502,7 @@
         <v>20</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
@@ -1507,11 +1531,11 @@
     <row r="17" spans="1:10" ht="21.95" customHeight="1">
       <c r="A17" s="22"/>
       <c r="B17" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C17" s="9"/>
       <c r="D17" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E17" s="5">
         <v>42506</v>
@@ -1520,7 +1544,7 @@
         <v>42510</v>
       </c>
       <c r="G17" s="15" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
@@ -1529,11 +1553,11 @@
     <row r="18" spans="1:10" ht="21.95" customHeight="1">
       <c r="A18" s="22"/>
       <c r="B18" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C18" s="9"/>
       <c r="D18" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E18" s="5">
         <v>42513</v>
@@ -1551,11 +1575,11 @@
     <row r="19" spans="1:10" ht="21.95" customHeight="1">
       <c r="A19" s="22"/>
       <c r="B19" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E19" s="5">
         <v>42511</v>
@@ -1564,7 +1588,7 @@
         <v>42516</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
@@ -1597,7 +1621,7 @@
     <row r="21" spans="1:10" ht="21.95" customHeight="1">
       <c r="A21" s="22"/>
       <c r="B21" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="3" t="s">
@@ -1619,7 +1643,7 @@
     <row r="22" spans="1:10" ht="21.95" customHeight="1">
       <c r="A22" s="22"/>
       <c r="B22" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C22" s="10"/>
       <c r="D22" s="3" t="s">
@@ -1632,7 +1656,7 @@
         <v>42507</v>
       </c>
       <c r="G22" s="15" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
@@ -1657,7 +1681,7 @@
     <row r="24" spans="1:10" ht="21.95" customHeight="1">
       <c r="A24" s="22"/>
       <c r="B24" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C24" s="10"/>
       <c r="D24" s="3"/>
@@ -1677,7 +1701,7 @@
       </c>
       <c r="C25" s="10"/>
       <c r="D25" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E25" s="5">
         <v>42517</v>
@@ -1779,7 +1803,7 @@
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E31" s="5">
         <v>42520</v>
@@ -1788,7 +1812,7 @@
         <v>42522</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H31" s="3"/>
       <c r="I31" s="3"/>
@@ -1803,7 +1827,7 @@
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E32" s="5">
         <v>42517</v>
@@ -1812,7 +1836,7 @@
         <v>42518</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H32" s="3"/>
       <c r="I32" s="3"/>
@@ -1825,7 +1849,7 @@
       </c>
       <c r="C33" s="3"/>
       <c r="D33" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
@@ -1841,7 +1865,7 @@
       </c>
       <c r="C34" s="3"/>
       <c r="D34" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
@@ -1857,7 +1881,7 @@
       </c>
       <c r="C35" s="3"/>
       <c r="D35" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
@@ -1875,7 +1899,7 @@
       </c>
       <c r="C36" s="3"/>
       <c r="D36" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E36" s="5">
         <v>42508</v>
@@ -1884,7 +1908,7 @@
         <v>42511</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H36" s="3"/>
       <c r="I36" s="3"/>
@@ -1947,10 +1971,10 @@
       <c r="J40" s="3"/>
     </row>
     <row r="41" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A41" s="26" t="s">
-        <v>115</v>
-      </c>
-      <c r="B41" s="26"/>
+      <c r="A41" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="B41" s="23"/>
       <c r="C41" s="3" t="s">
         <v>51</v>
       </c>
@@ -1963,18 +1987,18 @@
       <c r="J41" s="3"/>
     </row>
     <row r="42" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A42" s="28" t="s">
+      <c r="A42" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="B42" s="29"/>
-      <c r="C42" s="29"/>
-      <c r="D42" s="29"/>
-      <c r="E42" s="29"/>
-      <c r="F42" s="29"/>
-      <c r="G42" s="29"/>
-      <c r="H42" s="29"/>
-      <c r="I42" s="29"/>
-      <c r="J42" s="29"/>
+      <c r="B42" s="25"/>
+      <c r="C42" s="25"/>
+      <c r="D42" s="25"/>
+      <c r="E42" s="25"/>
+      <c r="F42" s="25"/>
+      <c r="G42" s="25"/>
+      <c r="H42" s="25"/>
+      <c r="I42" s="25"/>
+      <c r="J42" s="25"/>
     </row>
     <row r="43" spans="1:10" ht="21.95" customHeight="1">
       <c r="A43" s="22" t="s">
@@ -2191,10 +2215,10 @@
     </row>
     <row r="56" spans="1:10" ht="21.95" customHeight="1">
       <c r="A56" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="B56" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="B56" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
@@ -2208,7 +2232,7 @@
     <row r="57" spans="1:10" ht="21.95" customHeight="1">
       <c r="A57" s="22"/>
       <c r="B57" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
@@ -2220,18 +2244,18 @@
       <c r="J57" s="3"/>
     </row>
     <row r="58" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A58" s="28" t="s">
+      <c r="A58" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="B58" s="29"/>
-      <c r="C58" s="29"/>
-      <c r="D58" s="29"/>
-      <c r="E58" s="29"/>
-      <c r="F58" s="29"/>
-      <c r="G58" s="29"/>
-      <c r="H58" s="29"/>
-      <c r="I58" s="29"/>
-      <c r="J58" s="29"/>
+      <c r="B58" s="25"/>
+      <c r="C58" s="25"/>
+      <c r="D58" s="25"/>
+      <c r="E58" s="25"/>
+      <c r="F58" s="25"/>
+      <c r="G58" s="25"/>
+      <c r="H58" s="25"/>
+      <c r="I58" s="25"/>
+      <c r="J58" s="25"/>
     </row>
     <row r="59" spans="1:10" ht="21.95" customHeight="1">
       <c r="A59" s="22" t="s">
@@ -2273,7 +2297,7 @@
       </c>
       <c r="H60" s="3"/>
       <c r="I60" s="21" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="J60" s="3"/>
     </row>
@@ -2316,113 +2340,107 @@
     <row r="63" spans="1:10" ht="21.95" customHeight="1">
       <c r="A63" s="22"/>
       <c r="B63" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="C63" s="3"/>
-      <c r="D63" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="E63" s="5"/>
-      <c r="F63" s="5"/>
-      <c r="G63" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="H63" s="3"/>
-      <c r="I63" s="3"/>
-      <c r="J63" s="3"/>
+      <c r="C63" s="19"/>
+      <c r="D63" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="E63" s="20"/>
+      <c r="F63" s="20"/>
+      <c r="G63" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="H63" s="19"/>
+      <c r="I63" s="19"/>
+      <c r="J63" s="19"/>
     </row>
     <row r="64" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A64" s="22" t="s">
-        <v>75</v>
-      </c>
+      <c r="A64" s="22"/>
       <c r="B64" s="7" t="s">
-        <v>61</v>
+        <v>153</v>
       </c>
       <c r="C64" s="3"/>
       <c r="D64" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="E64" s="5">
-        <v>42497</v>
-      </c>
-      <c r="F64" s="5">
-        <v>42497</v>
-      </c>
-      <c r="G64" s="3" t="s">
-        <v>12</v>
+        <v>147</v>
+      </c>
+      <c r="E64" s="5"/>
+      <c r="F64" s="5"/>
+      <c r="G64" s="19" t="s">
+        <v>150</v>
       </c>
       <c r="H64" s="3"/>
-      <c r="I64" s="21" t="s">
-        <v>148</v>
-      </c>
+      <c r="I64" s="3"/>
       <c r="J64" s="3"/>
     </row>
     <row r="65" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A65" s="22"/>
+      <c r="A65" s="22" t="s">
+        <v>75</v>
+      </c>
       <c r="B65" s="7" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="C65" s="3"/>
       <c r="D65" s="3" t="s">
         <v>94</v>
       </c>
       <c r="E65" s="5">
-        <v>42496</v>
+        <v>42497</v>
       </c>
       <c r="F65" s="5">
-        <v>42496</v>
+        <v>42497</v>
       </c>
       <c r="G65" s="3" t="s">
         <v>12</v>
       </c>
       <c r="H65" s="3"/>
       <c r="I65" s="21" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="J65" s="3"/>
     </row>
     <row r="66" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A66" s="22" t="s">
-        <v>39</v>
-      </c>
+      <c r="A66" s="22"/>
       <c r="B66" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>106</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="C66" s="3"/>
       <c r="D66" s="3" t="s">
         <v>94</v>
       </c>
       <c r="E66" s="5">
+        <v>42496</v>
+      </c>
+      <c r="F66" s="5">
+        <v>42496</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H66" s="3"/>
+      <c r="I66" s="21" t="s">
+        <v>146</v>
+      </c>
+      <c r="J66" s="3"/>
+    </row>
+    <row r="67" spans="1:10" ht="21.95" customHeight="1">
+      <c r="A67" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="B67" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E67" s="5">
         <v>42504</v>
       </c>
-      <c r="F66" s="5">
+      <c r="F67" s="5">
         <v>42504</v>
-      </c>
-      <c r="G66" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="H66" s="3"/>
-      <c r="I66" s="3"/>
-      <c r="J66" s="3"/>
-    </row>
-    <row r="67" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A67" s="22"/>
-      <c r="B67" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="C67" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="D67" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="E67" s="5">
-        <v>42503</v>
-      </c>
-      <c r="F67" s="5">
-        <v>42503</v>
       </c>
       <c r="G67" s="3" t="s">
         <v>102</v>
@@ -2434,162 +2452,170 @@
     <row r="68" spans="1:10" ht="21.95" customHeight="1">
       <c r="A68" s="22"/>
       <c r="B68" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="C68" s="3"/>
-      <c r="D68" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="E68" s="3"/>
-      <c r="F68" s="3"/>
-      <c r="G68" s="3"/>
+        <v>104</v>
+      </c>
+      <c r="C68" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="D68" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="E68" s="5">
+        <v>42503</v>
+      </c>
+      <c r="F68" s="5">
+        <v>42503</v>
+      </c>
+      <c r="G68" s="19" t="s">
+        <v>150</v>
+      </c>
       <c r="H68" s="3"/>
       <c r="I68" s="3"/>
       <c r="J68" s="3"/>
     </row>
     <row r="69" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A69" s="22" t="s">
-        <v>46</v>
-      </c>
+      <c r="A69" s="22"/>
       <c r="B69" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="C69" s="3"/>
-      <c r="D69" s="3"/>
-      <c r="E69" s="3"/>
-      <c r="F69" s="3"/>
-      <c r="G69" s="3"/>
-      <c r="H69" s="3"/>
-      <c r="I69" s="3"/>
-      <c r="J69" s="3"/>
+        <v>154</v>
+      </c>
+      <c r="C69" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="D69" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="E69" s="20"/>
+      <c r="F69" s="20"/>
+      <c r="G69" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="H69" s="19"/>
+      <c r="I69" s="19"/>
+      <c r="J69" s="19"/>
     </row>
     <row r="70" spans="1:10" ht="21.95" customHeight="1">
       <c r="A70" s="22"/>
       <c r="B70" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="C70" s="3" t="s">
-        <v>106</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="C70" s="3"/>
       <c r="D70" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="E70" s="5">
-        <v>42500</v>
-      </c>
-      <c r="F70" s="5">
-        <v>42500</v>
-      </c>
-      <c r="G70" s="3" t="s">
-        <v>102</v>
+      <c r="E70" s="3"/>
+      <c r="F70" s="3"/>
+      <c r="G70" s="19" t="s">
+        <v>151</v>
       </c>
       <c r="H70" s="3"/>
-      <c r="I70" s="21" t="s">
-        <v>148</v>
-      </c>
+      <c r="I70" s="3"/>
       <c r="J70" s="3"/>
     </row>
     <row r="71" spans="1:10" ht="21.95" customHeight="1">
       <c r="A71" s="22" t="s">
-        <v>79</v>
+        <v>46</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="C71" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="D71" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="E71" s="5">
-        <v>42501</v>
-      </c>
-      <c r="F71" s="5">
-        <v>42501</v>
-      </c>
-      <c r="G71" s="3" t="s">
-        <v>102</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="C71" s="3"/>
+      <c r="D71" s="3"/>
+      <c r="E71" s="3"/>
+      <c r="F71" s="3"/>
+      <c r="G71" s="3"/>
       <c r="H71" s="3"/>
-      <c r="I71" s="21" t="s">
-        <v>148</v>
-      </c>
+      <c r="I71" s="3"/>
       <c r="J71" s="3"/>
     </row>
     <row r="72" spans="1:10" ht="21.95" customHeight="1">
       <c r="A72" s="22"/>
       <c r="B72" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D72" s="3" t="s">
         <v>94</v>
       </c>
       <c r="E72" s="5">
-        <v>42502</v>
+        <v>42500</v>
       </c>
       <c r="F72" s="5">
-        <v>42502</v>
+        <v>42500</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>102</v>
       </c>
       <c r="H72" s="3"/>
       <c r="I72" s="21" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="J72" s="3"/>
     </row>
     <row r="73" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A73" s="22"/>
+      <c r="A73" s="22" t="s">
+        <v>79</v>
+      </c>
       <c r="B73" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="C73" s="3"/>
+        <v>122</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>106</v>
+      </c>
       <c r="D73" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="E73" s="3"/>
-      <c r="F73" s="3"/>
-      <c r="G73" s="3"/>
+      <c r="E73" s="5">
+        <v>42501</v>
+      </c>
+      <c r="F73" s="5">
+        <v>42501</v>
+      </c>
+      <c r="G73" s="3" t="s">
+        <v>102</v>
+      </c>
       <c r="H73" s="3"/>
-      <c r="I73" s="3"/>
+      <c r="I73" s="21" t="s">
+        <v>146</v>
+      </c>
       <c r="J73" s="3"/>
     </row>
     <row r="74" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A74" s="22" t="s">
-        <v>82</v>
-      </c>
+      <c r="A74" s="22"/>
       <c r="B74" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="C74" s="3"/>
+        <v>80</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>105</v>
+      </c>
       <c r="D74" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E74" s="20">
-        <v>42506</v>
-      </c>
-      <c r="F74" s="20">
-        <v>42507</v>
-      </c>
-      <c r="G74" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="E74" s="5">
+        <v>42502</v>
+      </c>
+      <c r="F74" s="5">
+        <v>42502</v>
+      </c>
+      <c r="G74" s="3" t="s">
         <v>102</v>
       </c>
       <c r="H74" s="3"/>
-      <c r="I74" s="3"/>
+      <c r="I74" s="21" t="s">
+        <v>146</v>
+      </c>
       <c r="J74" s="3"/>
     </row>
     <row r="75" spans="1:10" ht="21.95" customHeight="1">
       <c r="A75" s="22"/>
       <c r="B75" s="7" t="s">
-        <v>126</v>
+        <v>81</v>
       </c>
       <c r="C75" s="3"/>
-      <c r="D75" s="3"/>
+      <c r="D75" s="3" t="s">
+        <v>94</v>
+      </c>
       <c r="E75" s="3"/>
       <c r="F75" s="3"/>
       <c r="G75" s="3"/>
@@ -2598,17 +2624,25 @@
       <c r="J75" s="3"/>
     </row>
     <row r="76" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A76" s="22"/>
+      <c r="A76" s="22" t="s">
+        <v>82</v>
+      </c>
       <c r="B76" s="7" t="s">
-        <v>127</v>
+        <v>72</v>
       </c>
       <c r="C76" s="3"/>
       <c r="D76" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="E76" s="3"/>
-      <c r="F76" s="3"/>
-      <c r="G76" s="3"/>
+        <v>9</v>
+      </c>
+      <c r="E76" s="20">
+        <v>42506</v>
+      </c>
+      <c r="F76" s="20">
+        <v>42507</v>
+      </c>
+      <c r="G76" s="19" t="s">
+        <v>102</v>
+      </c>
       <c r="H76" s="3"/>
       <c r="I76" s="3"/>
       <c r="J76" s="3"/>
@@ -2616,12 +2650,10 @@
     <row r="77" spans="1:10" ht="21.95" customHeight="1">
       <c r="A77" s="22"/>
       <c r="B77" s="7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C77" s="3"/>
-      <c r="D77" s="3" t="s">
-        <v>94</v>
-      </c>
+      <c r="D77" s="3"/>
       <c r="E77" s="3"/>
       <c r="F77" s="3"/>
       <c r="G77" s="3"/>
@@ -2630,15 +2662,13 @@
       <c r="J77" s="3"/>
     </row>
     <row r="78" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A78" s="22" t="s">
-        <v>83</v>
-      </c>
+      <c r="A78" s="22"/>
       <c r="B78" s="7" t="s">
-        <v>84</v>
+        <v>125</v>
       </c>
       <c r="C78" s="3"/>
       <c r="D78" s="3" t="s">
-        <v>94</v>
+        <v>148</v>
       </c>
       <c r="E78" s="3"/>
       <c r="F78" s="3"/>
@@ -2650,10 +2680,12 @@
     <row r="79" spans="1:10" ht="21.95" customHeight="1">
       <c r="A79" s="22"/>
       <c r="B79" s="7" t="s">
-        <v>85</v>
+        <v>126</v>
       </c>
       <c r="C79" s="3"/>
-      <c r="D79" s="3"/>
+      <c r="D79" s="3" t="s">
+        <v>94</v>
+      </c>
       <c r="E79" s="3"/>
       <c r="F79" s="3"/>
       <c r="G79" s="3"/>
@@ -2662,12 +2694,16 @@
       <c r="J79" s="3"/>
     </row>
     <row r="80" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A80" s="22"/>
+      <c r="A80" s="22" t="s">
+        <v>83</v>
+      </c>
       <c r="B80" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C80" s="3"/>
-      <c r="D80" s="3"/>
+      <c r="D80" s="3" t="s">
+        <v>94</v>
+      </c>
       <c r="E80" s="3"/>
       <c r="F80" s="3"/>
       <c r="G80" s="3"/>
@@ -2678,7 +2714,7 @@
     <row r="81" spans="1:10" ht="21.95" customHeight="1">
       <c r="A81" s="22"/>
       <c r="B81" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C81" s="3"/>
       <c r="D81" s="3"/>
@@ -2692,12 +2728,10 @@
     <row r="82" spans="1:10" ht="21.95" customHeight="1">
       <c r="A82" s="22"/>
       <c r="B82" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C82" s="3"/>
-      <c r="D82" s="3" t="s">
-        <v>94</v>
-      </c>
+      <c r="D82" s="3"/>
       <c r="E82" s="3"/>
       <c r="F82" s="3"/>
       <c r="G82" s="3"/>
@@ -2706,52 +2740,82 @@
       <c r="J82" s="3"/>
     </row>
     <row r="83" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A83" s="22" t="s">
-        <v>120</v>
-      </c>
+      <c r="A83" s="22"/>
       <c r="B83" s="7" t="s">
-        <v>121</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="C83" s="3"/>
+      <c r="D83" s="3"/>
+      <c r="E83" s="3"/>
+      <c r="F83" s="3"/>
+      <c r="G83" s="3"/>
+      <c r="H83" s="3"/>
+      <c r="I83" s="3"/>
+      <c r="J83" s="3"/>
     </row>
     <row r="84" spans="1:10" ht="21.95" customHeight="1">
       <c r="A84" s="22"/>
       <c r="B84" s="7" t="s">
-        <v>122</v>
+        <v>88</v>
+      </c>
+      <c r="C84" s="3"/>
+      <c r="D84" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E84" s="3"/>
+      <c r="F84" s="3"/>
+      <c r="G84" s="3"/>
+      <c r="H84" s="3"/>
+      <c r="I84" s="3"/>
+      <c r="J84" s="3"/>
+    </row>
+    <row r="85" spans="1:10" ht="21.95" customHeight="1">
+      <c r="A85" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="B85" s="7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" ht="21.95" customHeight="1">
+      <c r="A86" s="22"/>
+      <c r="B86" s="7" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A42:J42"/>
-    <mergeCell ref="A74:A77"/>
-    <mergeCell ref="A78:A82"/>
-    <mergeCell ref="A64:A65"/>
-    <mergeCell ref="A66:A68"/>
-    <mergeCell ref="A71:A73"/>
-    <mergeCell ref="A59:A63"/>
-    <mergeCell ref="A58:J58"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A26:A28"/>
+    <mergeCell ref="A10:A19"/>
     <mergeCell ref="A29:A31"/>
     <mergeCell ref="A32:A35"/>
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="A36:A40"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="A9:J9"/>
+    <mergeCell ref="A85:A86"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A42:J42"/>
+    <mergeCell ref="A76:A79"/>
+    <mergeCell ref="A80:A84"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="A67:A70"/>
+    <mergeCell ref="A73:A75"/>
+    <mergeCell ref="A59:A64"/>
+    <mergeCell ref="A58:J58"/>
     <mergeCell ref="A56:A57"/>
     <mergeCell ref="A43:A45"/>
     <mergeCell ref="A46:A48"/>
     <mergeCell ref="A49:A50"/>
     <mergeCell ref="A51:A53"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="A26:A28"/>
-    <mergeCell ref="A10:A19"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/trunk/doc/3w联盟微信开发计划表.xlsx
+++ b/trunk/doc/3w联盟微信开发计划表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="161">
   <si>
     <t>负责人</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -36,10 +36,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>韦杰生</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>交互原型</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -424,10 +420,6 @@
   </si>
   <si>
     <t>增查改</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>平面UI完成后，再按效果实现</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -553,10 +545,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>平面没有效果图，暂时根据交互，做些基本的，提供给开发</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>5天</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -581,10 +569,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>朱子秋</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2天</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -662,6 +646,37 @@
   </si>
   <si>
     <t>增查改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据UI，做实现静态页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>韦杰生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>银联充值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信支付</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>申请没得，待定</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -669,7 +684,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -747,6 +762,14 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -782,7 +805,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -850,27 +873,39 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1167,10 +1202,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J86"/>
+  <dimension ref="A1:J88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="F70" sqref="F70"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21.95" customHeight="1"/>
@@ -1189,27 +1224,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A1" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="B1" s="27"/>
+      <c r="A1" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="24"/>
       <c r="C1" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>37</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>1</v>
@@ -1219,25 +1254,25 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="36" customHeight="1">
-      <c r="A2" s="28" t="s">
-        <v>100</v>
-      </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
+      <c r="A2" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
     </row>
     <row r="3" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A3" s="22" t="s">
-        <v>141</v>
-      </c>
-      <c r="B3" s="18" t="s">
-        <v>139</v>
+      <c r="A3" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>135</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="6"/>
@@ -1248,16 +1283,16 @@
         <v>42513</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
     </row>
     <row r="4" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A4" s="22"/>
+      <c r="A4" s="29"/>
       <c r="B4" s="18" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="17"/>
@@ -1267,20 +1302,20 @@
       <c r="F4" s="5">
         <v>42521</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>133</v>
+      <c r="G4" s="19" t="s">
+        <v>129</v>
       </c>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
     </row>
     <row r="5" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A5" s="22"/>
+      <c r="A5" s="29"/>
       <c r="B5" s="18" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D5" s="17"/>
       <c r="E5" s="5">
@@ -1288,41 +1323,43 @@
       </c>
       <c r="F5" s="5"/>
       <c r="G5" s="3" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
     </row>
     <row r="6" spans="1:10" ht="54" customHeight="1">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="23"/>
+      <c r="B6" s="27"/>
       <c r="C6" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>107</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="D6" s="23" t="s">
+        <v>154</v>
+      </c>
+      <c r="E6" s="20">
+        <v>42520</v>
+      </c>
+      <c r="F6" s="20">
+        <v>42551</v>
+      </c>
+      <c r="G6" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="H6" s="3"/>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
     </row>
     <row r="7" spans="1:10" ht="42" customHeight="1">
-      <c r="A7" s="26" t="s">
+      <c r="A7" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="28"/>
+      <c r="C7" s="4" t="s">
         <v>6</v>
-      </c>
-      <c r="B7" s="26"/>
-      <c r="C7" s="4" t="s">
-        <v>7</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>4</v>
@@ -1332,22 +1369,22 @@
         <v>42507</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
     </row>
     <row r="8" spans="1:10" ht="41.25" customHeight="1">
-      <c r="A8" s="26" t="s">
+      <c r="A8" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="28"/>
+      <c r="C8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>8</v>
-      </c>
-      <c r="B8" s="26"/>
-      <c r="C8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>9</v>
       </c>
       <c r="E8" s="5">
         <v>42504</v>
@@ -1356,36 +1393,36 @@
         <v>42504</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
     </row>
     <row r="9" spans="1:10" s="13" customFormat="1" ht="43.5" customHeight="1">
-      <c r="A9" s="24" t="s">
-        <v>101</v>
-      </c>
-      <c r="B9" s="23"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="23"/>
-      <c r="I9" s="23"/>
-      <c r="J9" s="23"/>
+      <c r="A9" s="30" t="s">
+        <v>100</v>
+      </c>
+      <c r="B9" s="27"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="27"/>
     </row>
     <row r="10" spans="1:10" s="13" customFormat="1" ht="21.95" customHeight="1">
-      <c r="A10" s="22" t="s">
-        <v>13</v>
+      <c r="A10" s="29" t="s">
+        <v>12</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C10" s="14"/>
       <c r="D10" s="15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E10" s="5">
         <v>42493</v>
@@ -1394,21 +1431,21 @@
         <v>42495</v>
       </c>
       <c r="G10" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H10" s="14"/>
       <c r="I10" s="21" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="J10" s="14"/>
     </row>
     <row r="11" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A11" s="22"/>
+      <c r="A11" s="29"/>
       <c r="B11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="7" t="s">
         <v>14</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>15</v>
       </c>
       <c r="D11" s="3">
         <v>0.5</v>
@@ -1420,21 +1457,21 @@
         <v>42496</v>
       </c>
       <c r="G11" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H11" s="3"/>
       <c r="I11" s="21" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="J11" s="3"/>
     </row>
     <row r="12" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A12" s="22"/>
+      <c r="A12" s="29"/>
       <c r="B12" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="7" t="s">
         <v>16</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>17</v>
       </c>
       <c r="D12" s="3">
         <v>0.5</v>
@@ -1446,24 +1483,24 @@
         <v>42496</v>
       </c>
       <c r="G12" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H12" s="3"/>
       <c r="I12" s="21" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="J12" s="3"/>
     </row>
     <row r="13" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A13" s="22"/>
+      <c r="A13" s="29"/>
       <c r="B13" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E13" s="5">
         <v>42497</v>
@@ -1472,21 +1509,21 @@
         <v>42500</v>
       </c>
       <c r="G13" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H13" s="3"/>
       <c r="I13" s="21" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="J13" s="3"/>
     </row>
     <row r="14" spans="1:10" ht="105.75" customHeight="1">
-      <c r="A14" s="22"/>
+      <c r="A14" s="29"/>
       <c r="B14" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
@@ -1497,12 +1534,12 @@
       <c r="J14" s="3"/>
     </row>
     <row r="15" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A15" s="22"/>
+      <c r="A15" s="29"/>
       <c r="B15" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
@@ -1513,29 +1550,29 @@
       <c r="J15" s="3"/>
     </row>
     <row r="16" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A16" s="22"/>
+      <c r="A16" s="29"/>
       <c r="B16" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="15" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
     </row>
     <row r="17" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A17" s="22"/>
+      <c r="A17" s="29"/>
       <c r="B17" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C17" s="9"/>
       <c r="D17" s="3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E17" s="5">
         <v>42506</v>
@@ -1544,20 +1581,22 @@
         <v>42510</v>
       </c>
       <c r="G17" s="15" t="s">
-        <v>131</v>
-      </c>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
+        <v>128</v>
+      </c>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19" t="s">
+        <v>158</v>
+      </c>
       <c r="J17" s="3"/>
     </row>
     <row r="18" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A18" s="22"/>
+      <c r="A18" s="29"/>
       <c r="B18" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C18" s="9"/>
       <c r="D18" s="3" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="E18" s="5">
         <v>42513</v>
@@ -1566,20 +1605,20 @@
         <v>42516</v>
       </c>
       <c r="G18" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
     </row>
     <row r="19" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A19" s="22"/>
+      <c r="A19" s="29"/>
       <c r="B19" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E19" s="5">
         <v>42511</v>
@@ -1588,22 +1627,22 @@
         <v>42516</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
     </row>
     <row r="20" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A20" s="22" t="s">
+      <c r="A20" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="7" t="s">
         <v>22</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>23</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E20" s="5">
         <v>42504</v>
@@ -1612,20 +1651,20 @@
         <v>42504</v>
       </c>
       <c r="G20" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
     </row>
     <row r="21" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A21" s="22"/>
+      <c r="A21" s="29"/>
       <c r="B21" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E21" s="5">
         <v>42506</v>
@@ -1634,20 +1673,20 @@
         <v>42506</v>
       </c>
       <c r="G21" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
     </row>
     <row r="22" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A22" s="22"/>
+      <c r="A22" s="29"/>
       <c r="B22" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C22" s="10"/>
       <c r="D22" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E22" s="5">
         <v>42507</v>
@@ -1656,18 +1695,18 @@
         <v>42507</v>
       </c>
       <c r="G22" s="15" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
     </row>
     <row r="23" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A23" s="22" t="s">
+      <c r="A23" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" s="7" t="s">
         <v>25</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>26</v>
       </c>
       <c r="C23" s="10"/>
       <c r="D23" s="3"/>
@@ -1679,9 +1718,9 @@
       <c r="J23" s="3"/>
     </row>
     <row r="24" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A24" s="22"/>
+      <c r="A24" s="29"/>
       <c r="B24" s="7" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C24" s="10"/>
       <c r="D24" s="3"/>
@@ -1694,14 +1733,14 @@
     </row>
     <row r="25" spans="1:10" ht="21.95" customHeight="1">
       <c r="A25" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C25" s="10"/>
       <c r="D25" s="3" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E25" s="5">
         <v>42517</v>
@@ -1710,22 +1749,22 @@
         <v>42520</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
     </row>
     <row r="26" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A26" s="22" t="s">
+      <c r="A26" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="B26" s="10" t="s">
         <v>40</v>
-      </c>
-      <c r="B26" s="10" t="s">
-        <v>41</v>
       </c>
       <c r="C26" s="7"/>
       <c r="D26" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
@@ -1735,13 +1774,13 @@
       <c r="J26" s="3"/>
     </row>
     <row r="27" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A27" s="22"/>
+      <c r="A27" s="29"/>
       <c r="B27" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
@@ -1751,13 +1790,13 @@
       <c r="J27" s="3"/>
     </row>
     <row r="28" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A28" s="22"/>
+      <c r="A28" s="29"/>
       <c r="B28" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
@@ -1767,11 +1806,11 @@
       <c r="J28" s="3"/>
     </row>
     <row r="29" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A29" s="22" t="s">
+      <c r="A29" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="B29" s="7" t="s">
         <v>43</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>44</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
@@ -1783,9 +1822,9 @@
       <c r="J29" s="3"/>
     </row>
     <row r="30" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A30" s="22"/>
+      <c r="A30" s="29"/>
       <c r="B30" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
@@ -1797,59 +1836,59 @@
       <c r="J30" s="3"/>
     </row>
     <row r="31" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A31" s="22"/>
+      <c r="A31" s="29"/>
       <c r="B31" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="E31" s="5">
+        <v>131</v>
+      </c>
+      <c r="E31" s="32">
         <v>42520</v>
       </c>
-      <c r="F31" s="5">
+      <c r="F31" s="32">
         <v>42522</v>
       </c>
-      <c r="G31" s="3" t="s">
-        <v>136</v>
+      <c r="G31" s="33" t="s">
+        <v>132</v>
       </c>
       <c r="H31" s="3"/>
       <c r="I31" s="3"/>
       <c r="J31" s="3"/>
     </row>
     <row r="32" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A32" s="22" t="s">
+      <c r="A32" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="B32" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>47</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="E32" s="5">
+        <v>133</v>
+      </c>
+      <c r="E32" s="32">
         <v>42517</v>
       </c>
-      <c r="F32" s="5">
+      <c r="F32" s="32">
         <v>42518</v>
       </c>
-      <c r="G32" s="3" t="s">
-        <v>136</v>
+      <c r="G32" s="33" t="s">
+        <v>132</v>
       </c>
       <c r="H32" s="3"/>
       <c r="I32" s="3"/>
       <c r="J32" s="3"/>
     </row>
     <row r="33" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A33" s="22"/>
+      <c r="A33" s="29"/>
       <c r="B33" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C33" s="3"/>
       <c r="D33" s="3" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
@@ -1859,13 +1898,13 @@
       <c r="J33" s="3"/>
     </row>
     <row r="34" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A34" s="22"/>
+      <c r="A34" s="29"/>
       <c r="B34" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C34" s="3"/>
       <c r="D34" s="3" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
@@ -1875,13 +1914,13 @@
       <c r="J34" s="3"/>
     </row>
     <row r="35" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A35" s="22"/>
+      <c r="A35" s="29"/>
       <c r="B35" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C35" s="3"/>
       <c r="D35" s="3" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
@@ -1891,61 +1930,80 @@
       <c r="J35" s="3"/>
     </row>
     <row r="36" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A36" s="22" t="s">
-        <v>49</v>
+      <c r="A36" s="29" t="s">
+        <v>48</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="E36" s="5">
+        <v>156</v>
+      </c>
+      <c r="C36" s="19"/>
+      <c r="D36" s="19">
+        <v>5</v>
+      </c>
+      <c r="E36" s="20">
+        <v>42513</v>
+      </c>
+      <c r="F36" s="20">
+        <v>42517</v>
+      </c>
+      <c r="G36" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="I36" s="19" t="s">
+        <v>159</v>
+      </c>
+      <c r="J36" s="19"/>
+    </row>
+    <row r="37" spans="1:10" ht="21.95" customHeight="1">
+      <c r="A37" s="29"/>
+      <c r="B37" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="C37" s="19"/>
+      <c r="D37" s="19">
+        <v>3</v>
+      </c>
+      <c r="E37" s="20">
+        <v>42520</v>
+      </c>
+      <c r="F37" s="20">
+        <v>42522</v>
+      </c>
+      <c r="G37" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="H37" s="19"/>
+      <c r="I37" s="19"/>
+      <c r="J37" s="19"/>
+    </row>
+    <row r="38" spans="1:10" ht="21.95" customHeight="1">
+      <c r="A38" s="29"/>
+      <c r="B38" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E38" s="32">
         <v>42508</v>
       </c>
-      <c r="F36" s="5">
+      <c r="F38" s="32">
         <v>42511</v>
       </c>
-      <c r="G36" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="H36" s="3"/>
-      <c r="I36" s="3"/>
-      <c r="J36" s="3"/>
-    </row>
-    <row r="37" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A37" s="22"/>
-      <c r="B37" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
-      <c r="G37" s="3"/>
-      <c r="H37" s="3"/>
-      <c r="I37" s="3"/>
-      <c r="J37" s="3"/>
-    </row>
-    <row r="38" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A38" s="22"/>
-      <c r="B38" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
-      <c r="G38" s="3"/>
-      <c r="H38" s="3"/>
+      <c r="G38" s="33" t="s">
+        <v>132</v>
+      </c>
+      <c r="H38" s="19" t="s">
+        <v>160</v>
+      </c>
       <c r="I38" s="3"/>
       <c r="J38" s="3"/>
     </row>
     <row r="39" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A39" s="22"/>
+      <c r="A39" s="29"/>
       <c r="B39" s="7" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
@@ -1957,9 +2015,9 @@
       <c r="J39" s="3"/>
     </row>
     <row r="40" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A40" s="22"/>
+      <c r="A40" s="29"/>
       <c r="B40" s="7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
@@ -1971,13 +2029,11 @@
       <c r="J40" s="3"/>
     </row>
     <row r="41" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A41" s="23" t="s">
-        <v>114</v>
-      </c>
-      <c r="B41" s="23"/>
-      <c r="C41" s="3" t="s">
-        <v>51</v>
-      </c>
+      <c r="A41" s="29"/>
+      <c r="B41" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C41" s="3"/>
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
@@ -1987,30 +2043,28 @@
       <c r="J41" s="3"/>
     </row>
     <row r="42" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A42" s="24" t="s">
-        <v>62</v>
-      </c>
-      <c r="B42" s="25"/>
-      <c r="C42" s="25"/>
-      <c r="D42" s="25"/>
-      <c r="E42" s="25"/>
-      <c r="F42" s="25"/>
-      <c r="G42" s="25"/>
-      <c r="H42" s="25"/>
-      <c r="I42" s="25"/>
-      <c r="J42" s="25"/>
+      <c r="A42" s="29"/>
+      <c r="B42" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="3"/>
+      <c r="I42" s="3"/>
+      <c r="J42" s="3"/>
     </row>
     <row r="43" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A43" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="B43" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="C43" s="3"/>
-      <c r="D43" s="3" t="s">
-        <v>94</v>
-      </c>
+      <c r="A43" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="B43" s="27"/>
+      <c r="C43" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D43" s="3"/>
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
       <c r="G43" s="3"/>
@@ -2019,26 +2073,29 @@
       <c r="J43" s="3"/>
     </row>
     <row r="44" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A44" s="22"/>
-      <c r="B44" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="C44" s="3"/>
-      <c r="D44" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="H44" s="3"/>
-      <c r="I44" s="3"/>
-      <c r="J44" s="3"/>
+      <c r="A44" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="B44" s="31"/>
+      <c r="C44" s="31"/>
+      <c r="D44" s="31"/>
+      <c r="E44" s="31"/>
+      <c r="F44" s="31"/>
+      <c r="G44" s="31"/>
+      <c r="H44" s="31"/>
+      <c r="I44" s="31"/>
+      <c r="J44" s="31"/>
     </row>
     <row r="45" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A45" s="22"/>
+      <c r="A45" s="29" t="s">
+        <v>62</v>
+      </c>
       <c r="B45" s="7" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="C45" s="3"/>
       <c r="D45" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
@@ -2048,31 +2105,26 @@
       <c r="J45" s="3"/>
     </row>
     <row r="46" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A46" s="22" t="s">
-        <v>66</v>
-      </c>
+      <c r="A46" s="29"/>
       <c r="B46" s="7" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="C46" s="3"/>
       <c r="D46" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E46" s="3"/>
-      <c r="F46" s="3"/>
-      <c r="G46" s="3"/>
+        <v>93</v>
+      </c>
       <c r="H46" s="3"/>
       <c r="I46" s="3"/>
       <c r="J46" s="3"/>
     </row>
     <row r="47" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A47" s="22"/>
+      <c r="A47" s="29"/>
       <c r="B47" s="7" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="C47" s="3"/>
       <c r="D47" s="3" t="s">
-        <v>9</v>
+        <v>94</v>
       </c>
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
@@ -2082,13 +2134,15 @@
       <c r="J47" s="3"/>
     </row>
     <row r="48" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A48" s="22"/>
+      <c r="A48" s="29" t="s">
+        <v>65</v>
+      </c>
       <c r="B48" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C48" s="3"/>
       <c r="D48" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
@@ -2098,15 +2152,13 @@
       <c r="J48" s="3"/>
     </row>
     <row r="49" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A49" s="22" t="s">
-        <v>68</v>
-      </c>
+      <c r="A49" s="29"/>
       <c r="B49" s="7" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="C49" s="3"/>
       <c r="D49" s="3" t="s">
-        <v>94</v>
+        <v>8</v>
       </c>
       <c r="E49" s="3"/>
       <c r="F49" s="3"/>
@@ -2116,13 +2168,13 @@
       <c r="J49" s="3"/>
     </row>
     <row r="50" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A50" s="22"/>
+      <c r="A50" s="29"/>
       <c r="B50" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C50" s="3"/>
       <c r="D50" s="3" t="s">
-        <v>94</v>
+        <v>8</v>
       </c>
       <c r="E50" s="3"/>
       <c r="F50" s="3"/>
@@ -2132,15 +2184,15 @@
       <c r="J50" s="3"/>
     </row>
     <row r="51" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A51" s="22" t="s">
-        <v>69</v>
+      <c r="A51" s="29" t="s">
+        <v>67</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="C51" s="3"/>
       <c r="D51" s="3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E51" s="3"/>
       <c r="F51" s="3"/>
@@ -2150,13 +2202,13 @@
       <c r="J51" s="3"/>
     </row>
     <row r="52" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A52" s="22"/>
+      <c r="A52" s="29"/>
       <c r="B52" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C52" s="3"/>
       <c r="D52" s="3" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E52" s="3"/>
       <c r="F52" s="3"/>
@@ -2166,13 +2218,15 @@
       <c r="J52" s="3"/>
     </row>
     <row r="53" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A53" s="22"/>
+      <c r="A53" s="29" t="s">
+        <v>68</v>
+      </c>
       <c r="B53" s="7" t="s">
-        <v>98</v>
+        <v>69</v>
       </c>
       <c r="C53" s="3"/>
       <c r="D53" s="3" t="s">
-        <v>9</v>
+        <v>95</v>
       </c>
       <c r="E53" s="3"/>
       <c r="F53" s="3"/>
@@ -2182,14 +2236,14 @@
       <c r="J53" s="3"/>
     </row>
     <row r="54" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A54" s="22" t="s">
-        <v>71</v>
-      </c>
+      <c r="A54" s="29"/>
       <c r="B54" s="7" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="C54" s="3"/>
-      <c r="D54" s="3"/>
+      <c r="D54" s="3" t="s">
+        <v>96</v>
+      </c>
       <c r="E54" s="3"/>
       <c r="F54" s="3"/>
       <c r="G54" s="3"/>
@@ -2198,13 +2252,13 @@
       <c r="J54" s="3"/>
     </row>
     <row r="55" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A55" s="22"/>
+      <c r="A55" s="29"/>
       <c r="B55" s="7" t="s">
-        <v>59</v>
+        <v>97</v>
       </c>
       <c r="C55" s="3"/>
       <c r="D55" s="3" t="s">
-        <v>94</v>
+        <v>8</v>
       </c>
       <c r="E55" s="3"/>
       <c r="F55" s="3"/>
@@ -2214,11 +2268,11 @@
       <c r="J55" s="3"/>
     </row>
     <row r="56" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A56" s="22" t="s">
-        <v>115</v>
+      <c r="A56" s="29" t="s">
+        <v>70</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>116</v>
+        <v>71</v>
       </c>
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
@@ -2230,12 +2284,14 @@
       <c r="J56" s="3"/>
     </row>
     <row r="57" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A57" s="22"/>
+      <c r="A57" s="29"/>
       <c r="B57" s="7" t="s">
-        <v>117</v>
+        <v>58</v>
       </c>
       <c r="C57" s="3"/>
-      <c r="D57" s="3"/>
+      <c r="D57" s="3" t="s">
+        <v>93</v>
+      </c>
       <c r="E57" s="3"/>
       <c r="F57" s="3"/>
       <c r="G57" s="3"/>
@@ -2244,416 +2300,408 @@
       <c r="J57" s="3"/>
     </row>
     <row r="58" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A58" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="B58" s="25"/>
-      <c r="C58" s="25"/>
-      <c r="D58" s="25"/>
-      <c r="E58" s="25"/>
-      <c r="F58" s="25"/>
-      <c r="G58" s="25"/>
-      <c r="H58" s="25"/>
-      <c r="I58" s="25"/>
-      <c r="J58" s="25"/>
+      <c r="A58" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="B58" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="C58" s="3"/>
+      <c r="D58" s="3"/>
+      <c r="E58" s="3"/>
+      <c r="F58" s="3"/>
+      <c r="G58" s="3"/>
+      <c r="H58" s="3"/>
+      <c r="I58" s="3"/>
+      <c r="J58" s="3"/>
     </row>
     <row r="59" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A59" s="22" t="s">
-        <v>63</v>
-      </c>
+      <c r="A59" s="29"/>
       <c r="B59" s="7" t="s">
-        <v>93</v>
+        <v>115</v>
       </c>
       <c r="C59" s="3"/>
-      <c r="D59" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="E59" s="5"/>
-      <c r="F59" s="5"/>
-      <c r="G59" s="3" t="s">
-        <v>102</v>
-      </c>
+      <c r="D59" s="3"/>
+      <c r="E59" s="3"/>
+      <c r="F59" s="3"/>
+      <c r="G59" s="3"/>
       <c r="H59" s="3"/>
       <c r="I59" s="3"/>
       <c r="J59" s="3"/>
     </row>
     <row r="60" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A60" s="22"/>
-      <c r="B60" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="C60" s="3"/>
-      <c r="D60" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="E60" s="20">
-        <v>42495</v>
-      </c>
-      <c r="F60" s="20">
-        <v>42495</v>
-      </c>
-      <c r="G60" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="H60" s="3"/>
-      <c r="I60" s="21" t="s">
-        <v>146</v>
-      </c>
-      <c r="J60" s="3"/>
+      <c r="A60" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="B60" s="31"/>
+      <c r="C60" s="31"/>
+      <c r="D60" s="31"/>
+      <c r="E60" s="31"/>
+      <c r="F60" s="31"/>
+      <c r="G60" s="31"/>
+      <c r="H60" s="31"/>
+      <c r="I60" s="31"/>
+      <c r="J60" s="31"/>
     </row>
     <row r="61" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A61" s="22"/>
+      <c r="A61" s="29" t="s">
+        <v>62</v>
+      </c>
       <c r="B61" s="7" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="C61" s="3"/>
       <c r="D61" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E61" s="5"/>
       <c r="F61" s="5"/>
       <c r="G61" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H61" s="3"/>
       <c r="I61" s="3"/>
       <c r="J61" s="3"/>
     </row>
     <row r="62" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A62" s="22"/>
+      <c r="A62" s="29"/>
       <c r="B62" s="7" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C62" s="3"/>
       <c r="D62" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E62" s="20">
+        <v>42495</v>
+      </c>
+      <c r="F62" s="20">
+        <v>42495</v>
+      </c>
+      <c r="G62" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="H62" s="3"/>
+      <c r="I62" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="J62" s="3"/>
+    </row>
+    <row r="63" spans="1:10" ht="21.95" customHeight="1">
+      <c r="A63" s="29"/>
+      <c r="B63" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C63" s="3"/>
+      <c r="D63" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="E62" s="5"/>
-      <c r="F62" s="5"/>
-      <c r="G62" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="H62" s="3"/>
-      <c r="I62" s="3"/>
-      <c r="J62" s="3"/>
-    </row>
-    <row r="63" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A63" s="22"/>
-      <c r="B63" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="C63" s="19"/>
-      <c r="D63" s="19" t="s">
-        <v>152</v>
-      </c>
-      <c r="E63" s="20"/>
-      <c r="F63" s="20"/>
-      <c r="G63" s="19" t="s">
-        <v>151</v>
-      </c>
-      <c r="H63" s="19"/>
-      <c r="I63" s="19"/>
-      <c r="J63" s="19"/>
+      <c r="E63" s="5"/>
+      <c r="F63" s="5"/>
+      <c r="G63" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="H63" s="3"/>
+      <c r="I63" s="3"/>
+      <c r="J63" s="3"/>
     </row>
     <row r="64" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A64" s="22"/>
+      <c r="A64" s="29"/>
       <c r="B64" s="7" t="s">
-        <v>153</v>
+        <v>59</v>
       </c>
       <c r="C64" s="3"/>
       <c r="D64" s="3" t="s">
-        <v>147</v>
+        <v>93</v>
       </c>
       <c r="E64" s="5"/>
       <c r="F64" s="5"/>
-      <c r="G64" s="19" t="s">
-        <v>150</v>
+      <c r="G64" s="3" t="s">
+        <v>101</v>
       </c>
       <c r="H64" s="3"/>
       <c r="I64" s="3"/>
       <c r="J64" s="3"/>
     </row>
     <row r="65" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A65" s="22" t="s">
-        <v>75</v>
-      </c>
+      <c r="A65" s="29"/>
       <c r="B65" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="C65" s="3"/>
-      <c r="D65" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="E65" s="5">
-        <v>42497</v>
-      </c>
-      <c r="F65" s="5">
-        <v>42497</v>
-      </c>
-      <c r="G65" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H65" s="3"/>
-      <c r="I65" s="21" t="s">
-        <v>146</v>
-      </c>
-      <c r="J65" s="3"/>
+        <v>145</v>
+      </c>
+      <c r="C65" s="19"/>
+      <c r="D65" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="E65" s="20"/>
+      <c r="F65" s="20"/>
+      <c r="G65" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="H65" s="19"/>
+      <c r="I65" s="19"/>
+      <c r="J65" s="19"/>
     </row>
     <row r="66" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A66" s="22"/>
+      <c r="A66" s="29"/>
       <c r="B66" s="7" t="s">
-        <v>76</v>
+        <v>149</v>
       </c>
       <c r="C66" s="3"/>
       <c r="D66" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="E66" s="5">
+        <v>143</v>
+      </c>
+      <c r="E66" s="5"/>
+      <c r="F66" s="5"/>
+      <c r="G66" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="H66" s="3"/>
+      <c r="I66" s="3"/>
+      <c r="J66" s="3"/>
+    </row>
+    <row r="67" spans="1:10" ht="21.95" customHeight="1">
+      <c r="A67" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="B67" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C67" s="3"/>
+      <c r="D67" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E67" s="5">
+        <v>42497</v>
+      </c>
+      <c r="F67" s="5">
+        <v>42497</v>
+      </c>
+      <c r="G67" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H67" s="3"/>
+      <c r="I67" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="J67" s="3"/>
+    </row>
+    <row r="68" spans="1:10" ht="21.95" customHeight="1">
+      <c r="A68" s="29"/>
+      <c r="B68" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C68" s="3"/>
+      <c r="D68" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E68" s="5">
         <v>42496</v>
       </c>
-      <c r="F66" s="5">
+      <c r="F68" s="5">
         <v>42496</v>
       </c>
-      <c r="G66" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H66" s="3"/>
-      <c r="I66" s="21" t="s">
-        <v>146</v>
-      </c>
-      <c r="J66" s="3"/>
-    </row>
-    <row r="67" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A67" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="B67" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="C67" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="D67" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="E67" s="5">
+      <c r="G68" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H68" s="3"/>
+      <c r="I68" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="J68" s="3"/>
+    </row>
+    <row r="69" spans="1:10" ht="21.95" customHeight="1">
+      <c r="A69" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="B69" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E69" s="5">
         <v>42504</v>
       </c>
-      <c r="F67" s="5">
+      <c r="F69" s="5">
         <v>42504</v>
       </c>
-      <c r="G67" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="H67" s="3"/>
-      <c r="I67" s="3"/>
-      <c r="J67" s="3"/>
-    </row>
-    <row r="68" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A68" s="22"/>
-      <c r="B68" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="C68" s="19" t="s">
-        <v>155</v>
-      </c>
-      <c r="D68" s="19" t="s">
-        <v>138</v>
-      </c>
-      <c r="E68" s="5">
-        <v>42503</v>
-      </c>
-      <c r="F68" s="5">
-        <v>42503</v>
-      </c>
-      <c r="G68" s="19" t="s">
-        <v>150</v>
-      </c>
-      <c r="H68" s="3"/>
-      <c r="I68" s="3"/>
-      <c r="J68" s="3"/>
-    </row>
-    <row r="69" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A69" s="22"/>
-      <c r="B69" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="C69" s="19" t="s">
-        <v>156</v>
-      </c>
-      <c r="D69" s="19" t="s">
-        <v>152</v>
-      </c>
-      <c r="E69" s="20"/>
-      <c r="F69" s="20"/>
-      <c r="G69" s="19" t="s">
-        <v>151</v>
-      </c>
-      <c r="H69" s="19"/>
-      <c r="I69" s="19"/>
-      <c r="J69" s="19"/>
+      <c r="G69" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="H69" s="3"/>
+      <c r="I69" s="3"/>
+      <c r="J69" s="3"/>
     </row>
     <row r="70" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A70" s="22"/>
+      <c r="A70" s="29"/>
       <c r="B70" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="C70" s="3"/>
-      <c r="D70" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="E70" s="3"/>
-      <c r="F70" s="3"/>
+      <c r="C70" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="D70" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="E70" s="5">
+        <v>42503</v>
+      </c>
+      <c r="F70" s="5">
+        <v>42503</v>
+      </c>
       <c r="G70" s="19" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="H70" s="3"/>
       <c r="I70" s="3"/>
       <c r="J70" s="3"/>
     </row>
     <row r="71" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A71" s="22" t="s">
-        <v>46</v>
-      </c>
+      <c r="A71" s="29"/>
       <c r="B71" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="C71" s="3"/>
-      <c r="D71" s="3"/>
-      <c r="E71" s="3"/>
-      <c r="F71" s="3"/>
-      <c r="G71" s="3"/>
-      <c r="H71" s="3"/>
-      <c r="I71" s="3"/>
-      <c r="J71" s="3"/>
+        <v>150</v>
+      </c>
+      <c r="C71" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="D71" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="E71" s="20"/>
+      <c r="F71" s="20"/>
+      <c r="G71" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="H71" s="19"/>
+      <c r="I71" s="19"/>
+      <c r="J71" s="19"/>
     </row>
     <row r="72" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A72" s="22"/>
+      <c r="A72" s="29"/>
       <c r="B72" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="C72" s="3" t="s">
-        <v>105</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="C72" s="3"/>
       <c r="D72" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="E72" s="5">
+        <v>93</v>
+      </c>
+      <c r="E72" s="3"/>
+      <c r="F72" s="3"/>
+      <c r="G72" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="H72" s="3"/>
+      <c r="I72" s="3"/>
+      <c r="J72" s="3"/>
+    </row>
+    <row r="73" spans="1:10" ht="21.95" customHeight="1">
+      <c r="A73" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="B73" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="C73" s="3"/>
+      <c r="D73" s="3"/>
+      <c r="E73" s="3"/>
+      <c r="F73" s="3"/>
+      <c r="G73" s="3"/>
+      <c r="H73" s="3"/>
+      <c r="I73" s="3"/>
+      <c r="J73" s="3"/>
+    </row>
+    <row r="74" spans="1:10" ht="21.95" customHeight="1">
+      <c r="A74" s="29"/>
+      <c r="B74" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E74" s="5">
         <v>42500</v>
       </c>
-      <c r="F72" s="5">
+      <c r="F74" s="5">
         <v>42500</v>
       </c>
-      <c r="G72" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="H72" s="3"/>
-      <c r="I72" s="21" t="s">
-        <v>146</v>
-      </c>
-      <c r="J72" s="3"/>
-    </row>
-    <row r="73" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A73" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="B73" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="C73" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="D73" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="E73" s="5">
-        <v>42501</v>
-      </c>
-      <c r="F73" s="5">
-        <v>42501</v>
-      </c>
-      <c r="G73" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="H73" s="3"/>
-      <c r="I73" s="21" t="s">
-        <v>146</v>
-      </c>
-      <c r="J73" s="3"/>
-    </row>
-    <row r="74" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A74" s="22"/>
-      <c r="B74" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="C74" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="D74" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="E74" s="5">
-        <v>42502</v>
-      </c>
-      <c r="F74" s="5">
-        <v>42502</v>
-      </c>
       <c r="G74" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H74" s="3"/>
       <c r="I74" s="21" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="J74" s="3"/>
     </row>
     <row r="75" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A75" s="22"/>
+      <c r="A75" s="29" t="s">
+        <v>78</v>
+      </c>
       <c r="B75" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="C75" s="3"/>
+        <v>120</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>105</v>
+      </c>
       <c r="D75" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="E75" s="3"/>
-      <c r="F75" s="3"/>
-      <c r="G75" s="3"/>
+        <v>93</v>
+      </c>
+      <c r="E75" s="5">
+        <v>42501</v>
+      </c>
+      <c r="F75" s="5">
+        <v>42501</v>
+      </c>
+      <c r="G75" s="3" t="s">
+        <v>101</v>
+      </c>
       <c r="H75" s="3"/>
-      <c r="I75" s="3"/>
+      <c r="I75" s="21" t="s">
+        <v>142</v>
+      </c>
       <c r="J75" s="3"/>
     </row>
     <row r="76" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A76" s="22" t="s">
-        <v>82</v>
-      </c>
+      <c r="A76" s="29"/>
       <c r="B76" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="C76" s="3"/>
+        <v>79</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>104</v>
+      </c>
       <c r="D76" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E76" s="20">
-        <v>42506</v>
-      </c>
-      <c r="F76" s="20">
-        <v>42507</v>
-      </c>
-      <c r="G76" s="19" t="s">
-        <v>102</v>
+        <v>93</v>
+      </c>
+      <c r="E76" s="5">
+        <v>42502</v>
+      </c>
+      <c r="F76" s="5">
+        <v>42502</v>
+      </c>
+      <c r="G76" s="3" t="s">
+        <v>101</v>
       </c>
       <c r="H76" s="3"/>
-      <c r="I76" s="3"/>
+      <c r="I76" s="21" t="s">
+        <v>142</v>
+      </c>
       <c r="J76" s="3"/>
     </row>
     <row r="77" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A77" s="22"/>
+      <c r="A77" s="29"/>
       <c r="B77" s="7" t="s">
-        <v>124</v>
+        <v>80</v>
       </c>
       <c r="C77" s="3"/>
-      <c r="D77" s="3"/>
+      <c r="D77" s="3" t="s">
+        <v>93</v>
+      </c>
       <c r="E77" s="3"/>
       <c r="F77" s="3"/>
       <c r="G77" s="3"/>
@@ -2662,30 +2710,36 @@
       <c r="J77" s="3"/>
     </row>
     <row r="78" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A78" s="22"/>
+      <c r="A78" s="29" t="s">
+        <v>81</v>
+      </c>
       <c r="B78" s="7" t="s">
-        <v>125</v>
+        <v>71</v>
       </c>
       <c r="C78" s="3"/>
       <c r="D78" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="E78" s="3"/>
-      <c r="F78" s="3"/>
-      <c r="G78" s="3"/>
+        <v>8</v>
+      </c>
+      <c r="E78" s="20">
+        <v>42506</v>
+      </c>
+      <c r="F78" s="20">
+        <v>42507</v>
+      </c>
+      <c r="G78" s="19" t="s">
+        <v>101</v>
+      </c>
       <c r="H78" s="3"/>
       <c r="I78" s="3"/>
       <c r="J78" s="3"/>
     </row>
     <row r="79" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A79" s="22"/>
+      <c r="A79" s="29"/>
       <c r="B79" s="7" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C79" s="3"/>
-      <c r="D79" s="3" t="s">
-        <v>94</v>
-      </c>
+      <c r="D79" s="3"/>
       <c r="E79" s="3"/>
       <c r="F79" s="3"/>
       <c r="G79" s="3"/>
@@ -2694,15 +2748,13 @@
       <c r="J79" s="3"/>
     </row>
     <row r="80" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A80" s="22" t="s">
-        <v>83</v>
-      </c>
+      <c r="A80" s="29"/>
       <c r="B80" s="7" t="s">
-        <v>84</v>
+        <v>123</v>
       </c>
       <c r="C80" s="3"/>
       <c r="D80" s="3" t="s">
-        <v>94</v>
+        <v>144</v>
       </c>
       <c r="E80" s="3"/>
       <c r="F80" s="3"/>
@@ -2712,12 +2764,14 @@
       <c r="J80" s="3"/>
     </row>
     <row r="81" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A81" s="22"/>
+      <c r="A81" s="29"/>
       <c r="B81" s="7" t="s">
-        <v>85</v>
+        <v>124</v>
       </c>
       <c r="C81" s="3"/>
-      <c r="D81" s="3"/>
+      <c r="D81" s="3" t="s">
+        <v>93</v>
+      </c>
       <c r="E81" s="3"/>
       <c r="F81" s="3"/>
       <c r="G81" s="3"/>
@@ -2726,12 +2780,16 @@
       <c r="J81" s="3"/>
     </row>
     <row r="82" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A82" s="22"/>
+      <c r="A82" s="29" t="s">
+        <v>82</v>
+      </c>
       <c r="B82" s="7" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C82" s="3"/>
-      <c r="D82" s="3"/>
+      <c r="D82" s="3" t="s">
+        <v>93</v>
+      </c>
       <c r="E82" s="3"/>
       <c r="F82" s="3"/>
       <c r="G82" s="3"/>
@@ -2740,9 +2798,9 @@
       <c r="J82" s="3"/>
     </row>
     <row r="83" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A83" s="22"/>
+      <c r="A83" s="29"/>
       <c r="B83" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C83" s="3"/>
       <c r="D83" s="3"/>
@@ -2754,14 +2812,12 @@
       <c r="J83" s="3"/>
     </row>
     <row r="84" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A84" s="22"/>
+      <c r="A84" s="29"/>
       <c r="B84" s="7" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C84" s="3"/>
-      <c r="D84" s="3" t="s">
-        <v>94</v>
-      </c>
+      <c r="D84" s="3"/>
       <c r="E84" s="3"/>
       <c r="F84" s="3"/>
       <c r="G84" s="3"/>
@@ -2770,26 +2826,72 @@
       <c r="J84" s="3"/>
     </row>
     <row r="85" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A85" s="22" t="s">
+      <c r="A85" s="29"/>
+      <c r="B85" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="C85" s="3"/>
+      <c r="D85" s="3"/>
+      <c r="E85" s="3"/>
+      <c r="F85" s="3"/>
+      <c r="G85" s="3"/>
+      <c r="H85" s="3"/>
+      <c r="I85" s="3"/>
+      <c r="J85" s="3"/>
+    </row>
+    <row r="86" spans="1:10" ht="21.95" customHeight="1">
+      <c r="A86" s="29"/>
+      <c r="B86" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C86" s="3"/>
+      <c r="D86" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E86" s="3"/>
+      <c r="F86" s="3"/>
+      <c r="G86" s="3"/>
+      <c r="H86" s="3"/>
+      <c r="I86" s="3"/>
+      <c r="J86" s="3"/>
+    </row>
+    <row r="87" spans="1:10" ht="21.95" customHeight="1">
+      <c r="A87" s="29" t="s">
+        <v>116</v>
+      </c>
+      <c r="B87" s="7" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" ht="21.95" customHeight="1">
+      <c r="A88" s="29"/>
+      <c r="B88" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="B85" s="7" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="86" spans="1:10" ht="21.95" customHeight="1">
-      <c r="A86" s="22"/>
-      <c r="B86" s="7" t="s">
-        <v>120</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="A87:A88"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A44:J44"/>
+    <mergeCell ref="A78:A81"/>
+    <mergeCell ref="A82:A86"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="A69:A72"/>
+    <mergeCell ref="A75:A77"/>
+    <mergeCell ref="A61:A66"/>
+    <mergeCell ref="A60:J60"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="A45:A47"/>
+    <mergeCell ref="A48:A50"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="A53:A55"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="A56:A57"/>
     <mergeCell ref="A20:A22"/>
     <mergeCell ref="A23:A24"/>
     <mergeCell ref="A26:A28"/>
@@ -2797,25 +2899,9 @@
     <mergeCell ref="A29:A31"/>
     <mergeCell ref="A32:A35"/>
     <mergeCell ref="A3:A5"/>
-    <mergeCell ref="A36:A40"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="A9:J9"/>
-    <mergeCell ref="A85:A86"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A42:J42"/>
-    <mergeCell ref="A76:A79"/>
-    <mergeCell ref="A80:A84"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="A67:A70"/>
-    <mergeCell ref="A73:A75"/>
-    <mergeCell ref="A59:A64"/>
-    <mergeCell ref="A58:J58"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="A43:A45"/>
-    <mergeCell ref="A46:A48"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="A51:A53"/>
+    <mergeCell ref="A36:A42"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
